--- a/results/correlation_age.xlsx
+++ b/results/correlation_age.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UappaSguappa\Desktop\R_projects\stool\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AA1CD2-E45E-48BB-8C16-EAA761910829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="128" windowWidth="9030" windowHeight="2078"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -21,8 +27,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="age_correlation" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="age_correlation" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\amedeo\Desktop\R_Projects\stool\results\age_correlation.txt">
       <textFields count="6">
         <textField/>
@@ -34,7 +40,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="bmi_correlation" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="bmi_correlation" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\amedeo\Desktop\R_Projects\stool\results\bmi_correlation.txt">
       <textFields count="6">
         <textField/>
@@ -607,7 +613,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -783,43 +792,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -834,7 +810,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -847,16 +856,19 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bmi_correlation" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="bmi_correlation" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="age_correlation_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="age_correlation_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -902,7 +914,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -935,9 +947,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -970,6 +999,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1145,5446 +1191,5447 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I4" sqref="I4:I169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="42.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="13" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="16" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="15">
         <v>0.204048015474248</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="19">
         <v>1.7834131658555901E-3</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="16">
         <v>0.15471687462300199</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="19">
         <v>1.60063642664989E-3</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="15">
         <v>0.19899090911546799</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="19">
         <v>4.3269807297328499E-3</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="16">
         <v>0.14948759384313901</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="19">
         <v>4.03405691793772E-3</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="15">
         <v>0.20179911808207601</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="19">
         <v>2.0086416079693001E-3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="16">
         <v>0.14978815595061801</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="19">
         <v>2.2067642303339702E-3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="15">
         <v>0.16502953375468499</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="19">
         <v>1.8333845063525499E-2</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="16">
         <v>0.125220971066</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="19">
         <v>1.5608566618059099E-2</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="15">
         <v>0.185715051545049</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="19">
         <v>4.5371513352987702E-3</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="16">
         <v>0.129251505095175</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="19">
         <v>4.53441360546667E-3</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="15">
         <v>5.8329363464095903E-2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="19">
         <v>0.40727616069750699</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="16">
         <v>3.9399953337613897E-2</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="19">
         <v>0.41416750399984897</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="15">
         <v>-0.17524208113793499</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="19">
         <v>7.4612007528874601E-3</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="16">
         <v>-0.12056541347903001</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="19">
         <v>7.2692577597710103E-3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="15">
         <v>-5.5304584331202899E-3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="19">
         <v>0.93742558661087105</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="16">
         <v>-3.02572105465431E-3</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="19">
         <v>0.94925798506238301</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="15">
         <v>0.170614476708841</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="19">
         <v>9.2195250806099398E-3</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="16">
         <v>0.112492422390644</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="19">
         <v>1.1826975826506899E-2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="15">
         <v>0.16056012314479901</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="19">
         <v>2.1786505061027701E-2</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="16">
         <v>0.106050537088268</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="19">
         <v>2.5032065621114801E-2</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="15">
         <v>-0.16058352440017401</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="19">
         <v>1.4339828864549599E-2</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="16">
         <v>-0.10840902199779499</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="19">
         <v>1.50681330974606E-2</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="15">
         <v>-2.96563523009243E-2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="19">
         <v>0.67370595628551999</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="16">
         <v>-1.6573782486376299E-2</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="19">
         <v>0.72567357619374095</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="15">
         <v>-0.14847947712816001</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="19">
         <v>2.3703041032335701E-2</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="16">
         <v>-0.100052365716607</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="19">
         <v>2.6594492428655001E-2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="15">
         <v>-3.2672674898019803E-2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="19">
         <v>0.64270828394130797</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="16">
         <v>-1.8746288667816802E-2</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="19">
         <v>0.69486622751747895</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="15">
         <v>-0.143072228363708</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="19">
         <v>2.9356855473384701E-2</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="16">
         <v>-9.7248377809312295E-2</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="19">
         <v>3.0996929636978698E-2</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="15">
         <v>-9.1568758046934998E-2</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="19">
         <v>0.19272325185136499</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="16">
         <v>-6.1087098323124603E-2</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="19">
         <v>0.200775846065883</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="15">
         <v>-0.14081778653762</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="19">
         <v>3.2034325679240701E-2</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="16">
         <v>-9.7095303883194803E-2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="19">
         <v>3.7123536191518203E-2</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="15">
         <v>-5.3580509871406501E-2</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="19">
         <v>0.44658109887070202</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="16">
         <v>-3.98174557825604E-2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="19">
         <v>0.42031681209344002</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="15">
         <v>0.105928667514001</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="19">
         <v>0.107556566253371</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="16">
         <v>7.2879925271952903E-2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="19">
         <v>0.106636716705971</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="15">
         <v>0.20364189788544701</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="19">
         <v>3.4847302470395001E-3</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="16">
         <v>0.139982855608492</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="19">
         <v>3.4252861441009799E-3</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="15">
         <v>0.12927271285355599</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="19">
         <v>4.9223839199904897E-2</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="16">
         <v>8.9690909300240401E-2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="19">
         <v>4.5468905082545398E-2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="15">
         <v>0.12529344102298401</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="19">
         <v>7.4164875789930806E-2</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="16">
         <v>8.9191479632537998E-2</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="19">
         <v>6.0374036314321998E-2</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="15">
         <v>0.13311781920353299</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="19">
         <v>4.2799385634861901E-2</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="16">
         <v>9.0816951538142301E-2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="19">
         <v>4.19764481742479E-2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="15">
         <v>0.19957681914986</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="19">
         <v>4.21164188974714E-3</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="16">
         <v>0.13621818898941501</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="19">
         <v>3.9632129968835998E-3</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="15">
         <v>0.12609108897591201</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="19">
         <v>5.5130031269487102E-2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="16">
         <v>8.5174698323200501E-2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="19">
         <v>5.9157939296280403E-2</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="15">
         <v>0.136762033362786</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="19">
         <v>5.1113672397919203E-2</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="16">
         <v>9.51995493754903E-2</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="19">
         <v>4.6470267094697898E-2</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="15">
         <v>-0.12376664264640599</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="19">
         <v>5.9806410331944199E-2</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="16">
         <v>-8.81815553114981E-2</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="19">
         <v>5.58709995335974E-2</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="15">
         <v>-4.93042774287192E-2</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="19">
         <v>0.48373697574895802</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="16">
         <v>-3.33315325150891E-2</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="19">
         <v>0.495511808931968</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="15">
         <v>0.122289517768297</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="19">
         <v>6.2944535808762303E-2</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="16">
         <v>7.8860309656424404E-2</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="19">
         <v>8.0337766170319305E-2</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="15">
         <v>0.15411694140637999</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="19">
         <v>2.77452283229404E-2</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="16">
         <v>0.107224143767384</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="19">
         <v>2.4857203513596101E-2</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="15">
         <v>0.12019702666179399</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="19">
         <v>6.7620266896339695E-2</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="16">
         <v>8.3695047899056796E-2</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="19">
         <v>6.3965402858248394E-2</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="15">
         <v>0.119983967357153</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="19">
         <v>8.7383538022840504E-2</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="16">
         <v>8.2469145757127105E-2</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="19">
         <v>8.4680216213862305E-2</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="15">
         <v>0.11641520860996001</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="19">
         <v>7.6789159129574694E-2</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="16">
         <v>8.6381952560705105E-2</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="19">
         <v>6.61419342740623E-2</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="15">
         <v>5.7789378596189003E-2</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="19">
         <v>0.41163947281183</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="16">
         <v>4.0558126209926403E-2</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="19">
         <v>0.41634969134498101</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="15">
         <v>-0.112035060470201</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="19">
         <v>8.8640260195855095E-2</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="16">
         <v>-7.5141575006250697E-2</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="19">
         <v>9.4968008549053101E-2</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="15">
         <v>-8.0814522888370793E-2</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="19">
         <v>0.25053535924711501</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="16">
         <v>-5.74454418642684E-2</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="19">
         <v>0.22774555330660901</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="15">
         <v>0.111864460715228</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="19">
         <v>8.9129924569289101E-2</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="16">
         <v>7.5585850984692296E-2</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="19">
         <v>9.7745346394621596E-2</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="15">
         <v>0.142111129295836</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="19">
         <v>4.2602852362104503E-2</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="16">
         <v>9.6244013556844393E-2</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="19">
         <v>4.6451979967731302E-2</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="15">
         <v>2.3391000245042499E-2</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="19">
         <v>0.723035233030626</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="16">
         <v>1.7463932115157298E-2</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="19">
         <v>0.69804414363823597</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="15">
         <v>0.177091844527866</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="19">
         <v>1.12802609494111E-2</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="16">
         <v>0.12548954122220801</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="19">
         <v>8.4864868631750797E-3</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="15">
         <v>-0.11018163044874001</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="19">
         <v>9.4076911427032603E-2</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="16">
         <v>-7.3394333775187004E-2</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="19">
         <v>0.104407879930404</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="15">
         <v>1.16348447883432E-2</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="19">
         <v>0.86881546860659697</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="16">
         <v>8.9515200844108005E-3</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="19">
         <v>0.85170699182874698</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="18" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="15">
         <v>-0.10689721505538501</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="19">
         <v>0.104360406559887</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="16">
         <v>-7.2610587650152894E-2</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="19">
         <v>0.107907477871449</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="15">
         <v>-7.8514913704783196E-2</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="19">
         <v>0.26431492320586297</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="16">
         <v>-4.72424146457276E-2</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="19">
         <v>0.32359717176206498</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="15">
         <v>0.11149492805307799</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="19">
         <v>9.0197999548994795E-2</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="16">
         <v>7.7193736666293505E-2</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="19">
         <v>8.5561533435157794E-2</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="15">
         <v>0.183494492144086</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="19">
         <v>8.6124892268060697E-3</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="16">
         <v>0.123697751235544</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="19">
         <v>9.2737549383477506E-3</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="15">
         <v>0.10215170991415699</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="19">
         <v>0.120761330569766</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="16">
         <v>6.8558578091048705E-2</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="19">
         <v>0.138143184289824</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="15">
         <v>-2.0829465403855298E-2</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="19">
         <v>0.76745289058681598</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="16">
         <v>-1.4593250916512E-2</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="19">
         <v>0.76492172527459701</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="15">
         <v>0.10180717446146</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="19">
         <v>0.122026010040618</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="16">
         <v>7.2996424811360996E-2</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="19">
         <v>0.111962400949056</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="15">
         <v>6.5944883566653498E-2</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="19">
         <v>0.348699827442637</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="16">
         <v>4.92968936465428E-2</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="19">
         <v>0.31190672347262599</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="15">
         <v>-9.9893361264821207E-2</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="19">
         <v>0.129239121137109</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="16">
         <v>-6.8058053699559598E-2</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="19">
         <v>0.12729609038734599</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="15">
         <v>4.1841619334827801E-2</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="19">
         <v>0.55237439088655904</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="16">
         <v>2.7058488391680999E-2</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="19">
         <v>0.566977136738536</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="18" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="15">
         <v>-9.9075318133398593E-2</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="19">
         <v>0.13242088433631299</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="16">
         <v>-6.4926452931856699E-2</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="19">
         <v>0.14688062879350999</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="15">
         <v>-7.2322751784137204E-2</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="19">
         <v>0.303961628812152</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="16">
         <v>-4.9555346904823501E-2</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="19">
         <v>0.29568864291038899</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="15">
         <v>-9.5637573981097193E-2</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="19">
         <v>0.14645416355058499</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="16">
         <v>-6.6940989610267204E-2</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="19">
         <v>0.13668923883831499</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="15">
         <v>3.18165215203659E-3</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="19">
         <v>0.96397662266731499</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="16">
         <v>8.4606377461408592E-3</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="19">
         <v>0.85905129162445004</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="15">
         <v>-9.5444561631140207E-2</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="19">
         <v>0.147274352341251</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="16">
         <v>-6.1939713781878701E-2</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="19">
         <v>0.16523154464891401</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="15">
         <v>-0.108148816750546</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="19">
         <v>0.123633054084369</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="16">
         <v>-7.0112504231126901E-2</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="19">
         <v>0.13791925536957</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="15">
         <v>-9.4621249751934394E-2</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="19">
         <v>0.15081216227816999</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="16">
         <v>-6.3634691623887699E-2</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="19">
         <v>0.155329386139793</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="15">
         <v>-5.8140596961214402E-2</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="19">
         <v>0.40879835463226599</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="16">
         <v>-3.7453303780381003E-2</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="19">
         <v>0.430002378619048</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="15">
         <v>9.4065662195928795E-2</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="19">
         <v>0.15323566594739901</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="16">
         <v>6.6102939148485598E-2</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="19">
         <v>0.13865147274237299</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="15">
         <v>0.11492052773388201</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="19">
         <v>0.101685940133142</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="16">
         <v>8.4463370761227202E-2</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="19">
         <v>7.4050947148232696E-2</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="15">
         <v>9.0488893385510999E-2</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="19">
         <v>0.169546980961754</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="16">
         <v>6.3732811424850405E-2</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="19">
         <v>0.15505961030007601</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="15">
         <v>0.151902877481772</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="19">
         <v>3.0092013736891299E-2</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="16">
         <v>0.104987758573919</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="19">
         <v>2.6995308806219E-2</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="15">
         <v>-4.51156486964438E-2</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="19">
         <v>0.49409029852429398</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="16">
         <v>-2.8747754146854099E-2</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="19">
         <v>0.525469437594001</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="15">
         <v>-0.17646421384994301</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="19">
         <v>1.15773870173405E-2</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="16">
         <v>-0.116544103498328</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="19">
         <v>1.50340389203067E-2</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="15">
         <v>8.8000372523018996E-2</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="19">
         <v>0.18163600728895199</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="16">
         <v>6.9482407414582198E-2</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="19">
         <v>0.18078175982561701</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="15">
         <v>0.12849375955773101</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="19">
         <v>6.7013917335151593E-2</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="16">
         <v>0.10259262024056599</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="19">
         <v>6.2292300911089497E-2</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A38" s="18" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="15">
         <v>-0.127696712766214</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="19">
         <v>5.2079955487846497E-2</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="16">
         <v>-8.5828810507931799E-2</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="19">
         <v>5.4915160570224303E-2</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="15">
         <v>-0.14326065917761399</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="19">
         <v>4.09383006196068E-2</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="16">
         <v>-9.6663227726217202E-2</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="19">
         <v>4.1163178227602501E-2</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="15">
         <v>-3.4091946678971197E-2</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="19">
         <v>0.60542249501740897</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="16">
         <v>-2.2580208225871399E-2</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="19">
         <v>0.61655819327600503</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="15">
         <v>-0.14118758408502399</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="19">
         <v>4.3980992434520798E-2</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="16">
         <v>-9.7394782923141798E-2</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="19">
         <v>4.1247200160367502E-2</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="18" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="15">
         <v>8.1339921122365599E-2</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="19">
         <v>0.21709593058287799</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="16">
         <v>5.9655423620395998E-2</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="19">
         <v>0.18312410720022301</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="15">
         <v>9.3330860874450295E-3</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="19">
         <v>0.89459918666198202</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="16">
         <v>9.5485367709066092E-3</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="19">
         <v>0.84059042701817899</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="18" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="15">
         <v>8.1058553513924297E-2</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="19">
         <v>0.21869583133627801</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="16">
         <v>5.7071232856913998E-2</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="19">
         <v>0.20364339511612101</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="15">
         <v>0.123150834449702</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="19">
         <v>7.9289544273498894E-2</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="16">
         <v>9.0130561665673403E-2</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="19">
         <v>5.8006595689044503E-2</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="18" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="15">
         <v>8.0281770409999995E-2</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="19">
         <v>0.223156374699609</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="16">
         <v>5.73588714121794E-2</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="19">
         <v>0.21337517523726501</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="15">
         <v>3.6675724035287599E-2</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="19">
         <v>0.60251270314807204</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="16">
         <v>2.6132021428075702E-2</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="19">
         <v>0.59269807787916196</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="18" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="15">
         <v>7.9916058351842498E-2</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="19">
         <v>0.22527865530647501</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="16">
         <v>5.2172252656323602E-2</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="19">
         <v>0.25163306089542098</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="15">
         <v>-0.118434486934654</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="19">
         <v>9.1578079782150795E-2</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="16">
         <v>-8.0119787307997001E-2</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="19">
         <v>9.6187538943645706E-2</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="18" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="15">
         <v>-7.94943912510582E-2</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="19">
         <v>0.22774337841809</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="16">
         <v>-5.4868483863221698E-2</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="19">
         <v>0.233005744801321</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="15">
         <v>-9.9816577974618705E-3</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="19">
         <v>0.88732165450647504</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="16">
         <v>-4.6303989577098602E-3</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="19">
         <v>0.92440235070295196</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="18" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="15">
         <v>-7.9388272712275096E-2</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="19">
         <v>0.228366656575264</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="16">
         <v>-5.4520834468751E-2</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="19">
         <v>0.223310244113121</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="15">
         <v>-4.7846339245152102E-2</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="19">
         <v>0.49677517950875399</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="16">
         <v>-2.95062721150674E-2</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="19">
         <v>0.53336345066063995</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="18" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="15">
         <v>-7.6926812741972606E-2</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="19">
         <v>0.243163624734792</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="16">
         <v>-4.91339321865287E-2</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="19">
         <v>0.27384059788495002</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="15">
         <v>-9.4859695492924001E-2</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="19">
         <v>0.17714838948352099</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="16">
         <v>-6.33651810441965E-2</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="19">
         <v>0.182781072285573</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" s="18" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="15">
         <v>-7.5032656466996001E-2</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="19">
         <v>0.25499702077556702</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="16">
         <v>-5.2820069947678003E-2</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="19">
         <v>0.24737801357896</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="15">
         <v>-6.2534845899923197E-2</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="19">
         <v>0.37424072169471101</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="16">
         <v>-4.4992333804257399E-2</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="19">
         <v>0.35245649405944401</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A48" s="18" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="15">
         <v>-7.4279181985683201E-2</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="19">
         <v>0.25981303035970998</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="16">
         <v>-4.9135941435390601E-2</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="19">
         <v>0.27794307097548199</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="15">
         <v>-7.6848092694185403E-3</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="19">
         <v>0.91313254883496597</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="16">
         <v>1.18260668862054E-3</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="19">
         <v>0.98033129698686605</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="J48" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49" s="18" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="15">
         <v>-7.2496276131722895E-2</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="19">
         <v>0.27145686531791202</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="16">
         <v>-5.0445913160462097E-2</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="19">
         <v>0.25972623354764701</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="15">
         <v>-6.6442771338447407E-2</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="19">
         <v>0.34506486418934701</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="16">
         <v>-3.9594617025095202E-2</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="19">
         <v>0.40356742197503398</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J49" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A50" s="18" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="15">
         <v>7.24892745279615E-2</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="19">
         <v>0.27150328055466499</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="16">
         <v>5.3024359913186603E-2</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="19">
         <v>0.241602756371531</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="15">
         <v>9.8107537706557599E-2</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="19">
         <v>0.162709818073901</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="16">
         <v>6.5043367874129898E-2</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="19">
         <v>0.17497964355113799</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J50" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A51" s="18" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="15">
         <v>-7.1971654882984307E-2</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="19">
         <v>0.274949662406685</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="16">
         <v>-4.71107681451906E-2</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="19">
         <v>0.29609881265418397</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="15">
         <v>-9.1740802666422497E-2</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="19">
         <v>0.19188505696136299</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="16">
         <v>-5.8122431248122199E-2</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="19">
         <v>0.223640642610135</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52" s="18" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="15">
         <v>-7.1843464443046595E-2</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="19">
         <v>0.27580773580429901</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="16">
         <v>-4.7667124718355797E-2</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="19">
         <v>0.29134338589499797</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="15">
         <v>-7.5423736651491699E-2</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="19">
         <v>0.28364151026412299</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="16">
         <v>-5.127410131547E-2</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="19">
         <v>0.28362981900488599</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="J52" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A53" s="18" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="15">
         <v>6.9880612155216598E-2</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="19">
         <v>0.28917328268063702</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="16">
         <v>5.1016079610946501E-2</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="19">
         <v>0.27977558632250998</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="15">
         <v>-5.6443103493808301E-2</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="19">
         <v>0.42263712004036502</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="16">
         <v>-3.9735422888630703E-2</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="19">
         <v>0.42776137232040501</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="J53" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A54" s="18" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="15">
         <v>-6.9522395170692003E-2</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="19">
         <v>0.29165847288239</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="16">
         <v>-4.8034504135053301E-2</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="19">
         <v>0.28260117564538301</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="15">
         <v>-8.1697482490861895E-2</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="19">
         <v>0.245379220474715</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="16">
         <v>-4.9979496082741097E-2</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="19">
         <v>0.29104683686129201</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="J54" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A55" s="18" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="15">
         <v>6.90085582926558E-2</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="19">
         <v>0.29524813256215299</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="16">
         <v>4.7814612269518303E-2</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="19">
         <v>0.29286325064778701</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="15">
         <v>0.105321877620282</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="19">
         <v>0.13381486851264199</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="16">
         <v>7.1544825360067801E-2</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="19">
         <v>0.13716162836279699</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J55" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A56" s="18" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="15">
         <v>-6.8485768107290901E-2</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="19">
         <v>0.29893038850343601</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="16">
         <v>-4.7118977108973101E-2</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="19">
         <v>0.29289709752168502</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="15">
         <v>5.3974706930631403E-2</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="19">
         <v>0.44323907068709401</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="16">
         <v>3.71311011026619E-2</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="19">
         <v>0.43363952904226399</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="J56" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A57" s="18" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="15">
         <v>-6.7997881316646094E-2</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="19">
         <v>0.30239415873028702</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="16">
         <v>-4.6852410301157402E-2</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="19">
         <v>0.29711148429043599</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="15">
         <v>-0.110663024474062</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="19">
         <v>0.11509143725671001</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="16">
         <v>-7.1868961880651699E-2</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="19">
         <v>0.13107121724918799</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="J57" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A58" s="18" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="15">
         <v>-6.7905345776120396E-2</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="19">
         <v>0.30305409880481698</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="16">
         <v>-4.8590650675488199E-2</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="19">
         <v>0.28954763076307899</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="15">
         <v>-0.109794484410579</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="19">
         <v>0.117988486418138</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="16">
         <v>-7.5271771553615099E-2</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="19">
         <v>0.12149620720761301</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J58" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A59" s="18" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="15">
         <v>6.6753102845575396E-2</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="19">
         <v>0.31135122853604702</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="16">
         <v>4.3997969000010802E-2</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="19">
         <v>0.328307086299157</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="15">
         <v>7.0991012416865507E-2</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="19">
         <v>0.312975795521796</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="16">
         <v>5.3917730318771999E-2</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="19">
         <v>0.25795775244922398</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="J59" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A60" s="18" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="15">
         <v>-6.6280230509264806E-2</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="19">
         <v>0.31479898310031601</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="16">
         <v>-4.5421144130183902E-2</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="19">
         <v>0.314496077366335</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="15">
         <v>-1.1621968153406799E-2</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="19">
         <v>0.86895935102135702</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="16">
         <v>-6.8301249967260298E-3</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="19">
         <v>0.88649159708684899</v>
       </c>
-      <c r="J60" s="6" t="s">
+      <c r="J60" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A61" s="18" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="15">
         <v>8.8102796837357097E-2</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="19">
         <v>0.18112622173356399</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="16">
         <v>6.3301202702849793E-2</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="19">
         <v>0.15590128879740101</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="15">
         <v>0.13211710020105899</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="19">
         <v>5.9608294037396203E-2</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="16">
         <v>9.3506877407671898E-2</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="19">
         <v>4.7801644659551397E-2</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="J61" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A62" s="18" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="15">
         <v>6.3288792924705503E-2</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="19">
         <v>0.33718513896477498</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="16">
         <v>4.3974620257232401E-2</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="19">
         <v>0.34045255459754298</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="15">
         <v>-7.88214129913411E-2</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="19">
         <v>0.26244896577063498</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="16">
         <v>-5.1324349002326401E-2</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="19">
         <v>0.29170318909111498</v>
       </c>
-      <c r="J62" s="6" t="s">
+      <c r="J62" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A63" s="18" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="15">
         <v>-6.3078955744381701E-2</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="19">
         <v>0.33879269660011901</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="16">
         <v>-4.1724567304796199E-2</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="19">
         <v>0.353193870009536</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="15">
         <v>-8.66090668354563E-2</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="19">
         <v>0.218046405027495</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="16">
         <v>-5.6949279520166499E-2</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="19">
         <v>0.23136541259657101</v>
       </c>
-      <c r="J63" s="6" t="s">
+      <c r="J63" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A64" s="18" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="15">
         <v>-6.2089400746352302E-2</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="19">
         <v>0.34643937066932901</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="16">
         <v>-4.2195536908346397E-2</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="19">
         <v>0.35337842418645499</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="15">
         <v>-4.2834177006712E-2</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="19">
         <v>0.54297900402036303</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="16">
         <v>-2.7400292984477999E-2</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="19">
         <v>0.56904299704981898</v>
       </c>
-      <c r="J64" s="6" t="s">
+      <c r="J64" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A65" s="18" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="15">
         <v>-6.1244280566572801E-2</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="19">
         <v>0.35305568504923601</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="16">
         <v>-4.0307251977699403E-2</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="19">
         <v>0.37258559370431499</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="15">
         <v>-0.11763704988458799</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="19">
         <v>9.3798554798614694E-2</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="16">
         <v>-7.4681400696019806E-2</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="19">
         <v>0.11912853725292499</v>
       </c>
-      <c r="J65" s="6" t="s">
+      <c r="J65" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A66" s="18" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="15">
         <v>6.0084850240152303E-2</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="19">
         <v>0.36226092166568302</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="16">
         <v>3.9642828334658702E-2</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="19">
         <v>0.37401617424950501</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="15">
         <v>9.42971280702775E-2</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="19">
         <v>0.17974272480745801</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="16">
         <v>6.8836896770016698E-2</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="19">
         <v>0.14486987080661701</v>
       </c>
-      <c r="J66" s="6" t="s">
+      <c r="J66" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A67" s="18" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="15">
         <v>-5.98231678442189E-2</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="19">
         <v>0.36435901327956599</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="16">
         <v>-3.9253525475637999E-2</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="19">
         <v>0.378585860622981</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="15">
         <v>-2.67102761470581E-2</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="19">
         <v>0.70452265076544196</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="16">
         <v>-1.7680254987365501E-2</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="19">
         <v>0.70804975520314795</v>
       </c>
-      <c r="J67" s="6" t="s">
+      <c r="J67" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A68" s="18" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="15">
         <v>5.8276412740909098E-2</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="19">
         <v>0.37691398990552999</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="16">
         <v>4.0534014983478001E-2</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="19">
         <v>0.37068087293372798</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="15">
         <v>0.18705796063708499</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="19">
         <v>7.3843863397173399E-3</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="16">
         <v>0.13243637564206301</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="19">
         <v>5.7852918293034997E-3</v>
       </c>
-      <c r="J68" s="6" t="s">
+      <c r="J68" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A69" s="18" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="15">
         <v>-5.8008850633292003E-2</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="19">
         <v>0.37911236889685601</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="16">
         <v>-3.7549395824576497E-2</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="19">
         <v>0.41197976454483498</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="15">
         <v>0.12730963488241601</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="19">
         <v>6.9591168006275197E-2</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H69" s="16">
         <v>8.4781244348323404E-2</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="19">
         <v>8.0481512402677993E-2</v>
       </c>
-      <c r="J69" s="6" t="s">
+      <c r="J69" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A70" s="18" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="15">
         <v>-5.7923801299122002E-2</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="19">
         <v>0.37981280070230899</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="16">
         <v>-4.2048497076521703E-2</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70" s="19">
         <v>0.34890141355781901</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="15">
         <v>3.0842403522058599E-2</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="19">
         <v>0.66144793668523305</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="16">
         <v>1.8341422651113101E-2</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="19">
         <v>0.69956901931581295</v>
       </c>
-      <c r="J70" s="6" t="s">
+      <c r="J70" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A71" s="18" t="s">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="15">
         <v>5.6704892601362598E-2</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="19">
         <v>0.38993787286790899</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="16">
         <v>3.8648104068505697E-2</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="19">
         <v>0.38950726205316599</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="15">
         <v>-1.0413003159637699E-2</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="19">
         <v>0.882486766054695</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="16">
         <v>-1.4650670285831901E-3</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="19">
         <v>0.97543512725609405</v>
       </c>
-      <c r="J71" s="6" t="s">
+      <c r="J71" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A72" s="18" t="s">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="15">
         <v>5.6152476354697098E-2</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="19">
         <v>0.39457979967908302</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="16">
         <v>3.9972862624045903E-2</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="19">
         <v>0.38742302928637701</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="15">
         <v>-2.1443899056259801E-2</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="19">
         <v>0.76079793507881499</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="16">
         <v>-1.23623221400767E-2</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I72" s="19">
         <v>0.80106320586040503</v>
       </c>
-      <c r="J72" s="6" t="s">
+      <c r="J72" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A73" s="18" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="15">
         <v>-5.6078402861560503E-2</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="19">
         <v>0.39520475067511901</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="16">
         <v>-4.2324534559345997E-2</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="19">
         <v>0.39172948006675401</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="15">
         <v>9.0066552711313905E-2</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="19">
         <v>0.200155635118902</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73" s="16">
         <v>6.6505150311200995E-2</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I73" s="19">
         <v>0.20433638632592599</v>
       </c>
-      <c r="J73" s="6" t="s">
+      <c r="J73" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A74" s="18" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="15">
         <v>-5.5790691754564602E-2</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="19">
         <v>0.39763777439109699</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="16">
         <v>-3.5775157103408402E-2</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="19">
         <v>0.43284050251638401</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="15">
         <v>-5.6302611178990998E-2</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="19">
         <v>0.42379455509499597</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="16">
         <v>-3.7203454521489203E-2</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="19">
         <v>0.44154706302114799</v>
       </c>
-      <c r="J74" s="6" t="s">
+      <c r="J74" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A75" s="18" t="s">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="15">
         <v>5.5777850528315603E-2</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="19">
         <v>0.39774657469622099</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="16">
         <v>3.8648902221684503E-2</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="19">
         <v>0.385965397765896</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="15">
         <v>0.11417731191152999</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="19">
         <v>0.103932754786339</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H75" s="16">
         <v>8.0108499733399799E-2</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I75" s="19">
         <v>8.97086680089937E-2</v>
       </c>
-      <c r="J75" s="6" t="s">
+      <c r="J75" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A76" s="18" t="s">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="15">
         <v>5.36114557529992E-2</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="19">
         <v>0.41635600853139298</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="16">
         <v>3.4047164850312603E-2</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="19">
         <v>0.44797315036052399</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="15">
         <v>0.14004174326617799</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="19">
         <v>4.5742587226459602E-2</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H76" s="16">
         <v>9.6057261151084997E-2</v>
       </c>
-      <c r="I76" s="8">
+      <c r="I76" s="19">
         <v>4.3204588951478197E-2</v>
       </c>
-      <c r="J76" s="6" t="s">
+      <c r="J76" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A77" s="18" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="15">
         <v>5.3538545591648799E-2</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="19">
         <v>0.41699106051070101</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="16">
         <v>3.8788503516681998E-2</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="19">
         <v>0.39338386236692002</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="15">
         <v>0.117105540502886</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="19">
         <v>9.5302204931654297E-2</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="16">
         <v>8.0965686913217802E-2</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I77" s="19">
         <v>9.2720928697325303E-2</v>
       </c>
-      <c r="J77" s="6" t="s">
+      <c r="J77" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A78" s="18" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="15">
         <v>8.40951201552326E-2</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="19">
         <v>0.20186997931372999</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="16">
         <v>5.7727214274506999E-2</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="19">
         <v>0.19717027409746801</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="15">
         <v>0.122407634856393</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="19">
         <v>8.1132502098644907E-2</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H78" s="16">
         <v>8.8533928023935393E-2</v>
       </c>
-      <c r="I78" s="8">
+      <c r="I78" s="19">
         <v>6.1684971473875902E-2</v>
       </c>
-      <c r="J78" s="6" t="s">
+      <c r="J78" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A79" s="18" t="s">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="15">
         <v>-5.2902641719388702E-2</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="19">
         <v>0.42255383359124299</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="16">
         <v>-3.6476836601571999E-2</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="19">
         <v>0.41932975797441202</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="15">
         <v>-0.167464375086291</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="19">
         <v>1.6661035039191301E-2</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H79" s="16">
         <v>-0.112655752407123</v>
       </c>
-      <c r="I79" s="8">
+      <c r="I79" s="19">
         <v>1.84410720755817E-2</v>
       </c>
-      <c r="J79" s="6" t="s">
+      <c r="J79" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A80" s="18" t="s">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="15">
         <v>-5.2178126406581898E-2</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="19">
         <v>0.42894409931962801</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="16">
         <v>-3.59267710852633E-2</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="19">
         <v>0.42572694367114999</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="15">
         <v>-2.0781495632875398E-2</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G80" s="19">
         <v>0.76797317714211499</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H80" s="16">
         <v>-1.2261507558953E-2</v>
       </c>
-      <c r="I80" s="8">
+      <c r="I80" s="19">
         <v>0.79739518676479104</v>
       </c>
-      <c r="J80" s="6" t="s">
+      <c r="J80" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A81" s="18" t="s">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="15">
         <v>5.1539576116966301E-2</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="19">
         <v>0.43462214543266597</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="16">
         <v>3.7229776850102703E-2</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="19">
         <v>0.40520903861333402</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="15">
         <v>8.27577827111559E-2</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81" s="19">
         <v>0.239285701608178</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H81" s="16">
         <v>6.1297214393904502E-2</v>
       </c>
-      <c r="I81" s="8">
+      <c r="I81" s="19">
         <v>0.19569027123775201</v>
       </c>
-      <c r="J81" s="6" t="s">
+      <c r="J81" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A82" s="18" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="15">
         <v>-5.1168052207517502E-2</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="19">
         <v>0.43794551504688101</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="16">
         <v>-4.00506892521919E-2</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E82" s="19">
         <v>0.38318239034809098</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="15">
         <v>1.97904370386471E-2</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G82" s="19">
         <v>0.77874523152701902</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H82" s="16">
         <v>1.7325545596326999E-2</v>
       </c>
-      <c r="I82" s="8">
+      <c r="I82" s="19">
         <v>0.72197017632385296</v>
       </c>
-      <c r="J82" s="6" t="s">
+      <c r="J82" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A83" s="18" t="s">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="15">
         <v>-5.1031305597651497E-2</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="19">
         <v>0.43917239230965699</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="16">
         <v>-3.3833283950470402E-2</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="19">
         <v>0.450983325981477</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="15">
         <v>-8.4040271798327196E-2</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="19">
         <v>0.23205784107245001</v>
       </c>
-      <c r="H83" s="8">
+      <c r="H83" s="16">
         <v>-5.2096166081473098E-2</v>
       </c>
-      <c r="I83" s="8">
+      <c r="I83" s="19">
         <v>0.27302253974426599</v>
       </c>
-      <c r="J83" s="6" t="s">
+      <c r="J83" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A84" s="18" t="s">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="15">
         <v>5.0801271195291597E-2</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="19">
         <v>0.44124065625242198</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="16">
         <v>3.5034361057590301E-2</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E84" s="19">
         <v>0.437623354793645</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="15">
         <v>0.11483752473231</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G84" s="19">
         <v>0.101934946135464</v>
       </c>
-      <c r="H84" s="8">
+      <c r="H84" s="16">
         <v>7.6978729245751998E-2</v>
       </c>
-      <c r="I84" s="8">
+      <c r="I84" s="19">
         <v>0.107350436829055</v>
       </c>
-      <c r="J84" s="6" t="s">
+      <c r="J84" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A85" s="18" t="s">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="15">
         <v>-5.06886989867135E-2</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="19">
         <v>0.44225482182402498</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="16">
         <v>-3.1880346032726201E-2</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="19">
         <v>0.47976689945357698</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="15">
         <v>-2.32104532762291E-3</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G85" s="19">
         <v>0.973716457802146</v>
       </c>
-      <c r="H85" s="8">
+      <c r="H85" s="16">
         <v>-1.9617925158222399E-4</v>
       </c>
-      <c r="I85" s="8">
+      <c r="I85" s="19">
         <v>0.99672295674045097</v>
       </c>
-      <c r="J85" s="6" t="s">
+      <c r="J85" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A86" s="18" t="s">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="15">
         <v>4.9743079378755599E-2</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="19">
         <v>0.45082606941187803</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="16">
         <v>3.5595538394863999E-2</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E86" s="19">
         <v>0.42559341346100898</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="15">
         <v>0.102211856814586</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G86" s="19">
         <v>0.14574697935755199</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H86" s="16">
         <v>7.4541876125467796E-2</v>
       </c>
-      <c r="I86" s="8">
+      <c r="I86" s="19">
         <v>0.115248951828773</v>
       </c>
-      <c r="J86" s="6" t="s">
+      <c r="J86" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A87" s="18" t="s">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="15">
         <v>4.8876391388453698E-2</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="19">
         <v>0.45876325749868901</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="16">
         <v>3.3989558885738499E-2</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E87" s="19">
         <v>0.45662101458731902</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="15">
         <v>5.2501032418299003E-2</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G87" s="19">
         <v>0.45580546836255198</v>
       </c>
-      <c r="H87" s="8">
+      <c r="H87" s="16">
         <v>4.2370852539026803E-2</v>
       </c>
-      <c r="I87" s="8">
+      <c r="I87" s="19">
         <v>0.38176283377492998</v>
       </c>
-      <c r="J87" s="6" t="s">
+      <c r="J87" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A88" s="18" t="s">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="15">
         <v>-4.85538253989014E-2</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="19">
         <v>0.46173708955312698</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="16">
         <v>-3.2989560814519002E-2</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E88" s="19">
         <v>0.467720903783717</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="15">
         <v>-3.4217056910766597E-2</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G88" s="19">
         <v>0.62706886286679897</v>
       </c>
-      <c r="H88" s="8">
+      <c r="H88" s="16">
         <v>-1.9786601877778399E-2</v>
       </c>
-      <c r="I88" s="8">
+      <c r="I88" s="19">
         <v>0.68065045043889405</v>
       </c>
-      <c r="J88" s="6" t="s">
+      <c r="J88" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A89" s="18" t="s">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="15">
         <v>-4.8109035841663199E-2</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="19">
         <v>0.46585521981283901</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="16">
         <v>-3.3639063558028898E-2</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="19">
         <v>0.46081938878960499</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="15">
         <v>-5.73089297829018E-2</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G89" s="19">
         <v>0.41554475275221098</v>
       </c>
-      <c r="H89" s="8">
+      <c r="H89" s="16">
         <v>-4.0976163659311303E-2</v>
       </c>
-      <c r="I89" s="8">
+      <c r="I89" s="19">
         <v>0.39666456095302899</v>
       </c>
-      <c r="J89" s="6" t="s">
+      <c r="J89" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A90" s="18" t="s">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="15">
         <v>-4.6481580200353499E-2</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="19">
         <v>0.48109456617632002</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="16">
         <v>-3.08964169176188E-2</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E90" s="19">
         <v>0.49205345333973399</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="15">
         <v>-6.0044759117053002E-2</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G90" s="19">
         <v>0.39359779681672202</v>
       </c>
-      <c r="H90" s="8">
+      <c r="H90" s="16">
         <v>-4.0572478863984199E-2</v>
       </c>
-      <c r="I90" s="8">
+      <c r="I90" s="19">
         <v>0.39417851329450798</v>
       </c>
-      <c r="J90" s="6" t="s">
+      <c r="J90" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A91" s="18" t="s">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="15">
         <v>-4.6725474060032003E-2</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="19">
         <v>0.47879372604627202</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="16">
         <v>-2.998126458359E-2</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E91" s="19">
         <v>0.504016082167285</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="15">
         <v>-7.5629556291627195E-2</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G91" s="19">
         <v>0.28232591489546899</v>
       </c>
-      <c r="H91" s="8">
+      <c r="H91" s="16">
         <v>-4.9942525515879403E-2</v>
       </c>
-      <c r="I91" s="8">
+      <c r="I91" s="19">
         <v>0.29330421289818798</v>
       </c>
-      <c r="J91" s="6" t="s">
+      <c r="J91" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A92" s="18" t="s">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="15">
         <v>-4.6606650665843602E-2</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="19">
         <v>0.47991393290003598</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="16">
         <v>-2.7649093392506E-2</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E92" s="19">
         <v>0.53911366406602801</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="15">
         <v>3.5493140184556203E-2</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G92" s="19">
         <v>0.61427035793664297</v>
       </c>
-      <c r="H92" s="8">
+      <c r="H92" s="16">
         <v>2.4420082272692201E-2</v>
       </c>
-      <c r="I92" s="8">
+      <c r="I92" s="19">
         <v>0.60847688638532604</v>
       </c>
-      <c r="J92" s="6" t="s">
+      <c r="J92" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A93" s="18" t="s">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="15">
         <v>4.6504527447145901E-2</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="19">
         <v>0.48087783240737503</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="16">
         <v>3.1278169397202897E-2</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E93" s="19">
         <v>0.48771837296496101</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="15">
         <v>-9.2700409661087401E-3</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G93" s="19">
         <v>0.895307086947285</v>
       </c>
-      <c r="H93" s="8">
+      <c r="H93" s="16">
         <v>-5.8798345232908599E-3</v>
       </c>
-      <c r="I93" s="8">
+      <c r="I93" s="19">
         <v>0.90194090077406597</v>
       </c>
-      <c r="J93" s="6" t="s">
+      <c r="J93" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A94" s="18" t="s">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="15">
         <v>-4.71112387050402E-2</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="19">
         <v>0.47516673160482997</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="16">
         <v>-2.9595271858425799E-2</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E94" s="19">
         <v>0.50993959526795996</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="15">
         <v>4.6737697233254598E-2</v>
       </c>
-      <c r="G94" s="8">
+      <c r="G94" s="19">
         <v>0.50681270927510602</v>
       </c>
-      <c r="H94" s="8">
+      <c r="H94" s="16">
         <v>3.2272369355957398E-2</v>
       </c>
-      <c r="I94" s="8">
+      <c r="I94" s="19">
         <v>0.49749385604142099</v>
       </c>
-      <c r="J94" s="6" t="s">
+      <c r="J94" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A95" s="18" t="s">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="15">
         <v>8.5513704527582293E-2</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="19">
         <v>0.194339137407255</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="16">
         <v>5.8521570626620403E-2</v>
       </c>
-      <c r="E95" s="8">
+      <c r="E95" s="19">
         <v>0.189972733223403</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="15">
         <v>0.12050313252794601</v>
       </c>
-      <c r="G95" s="8">
+      <c r="G95" s="19">
         <v>8.6013044917393103E-2</v>
       </c>
-      <c r="H95" s="8">
+      <c r="H95" s="16">
         <v>8.6252115392870199E-2</v>
       </c>
-      <c r="I95" s="8">
+      <c r="I95" s="19">
         <v>6.8114196382466602E-2</v>
       </c>
-      <c r="J95" s="6" t="s">
+      <c r="J95" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A96" s="18" t="s">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="15">
         <v>4.5340113856567298E-2</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="19">
         <v>0.49194196270532398</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="16">
         <v>3.2837159613767798E-2</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E96" s="19">
         <v>0.46853449055693303</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="15">
         <v>9.6833360508324598E-2</v>
       </c>
-      <c r="G96" s="8">
+      <c r="G96" s="19">
         <v>0.16826553345520101</v>
       </c>
-      <c r="H96" s="8">
+      <c r="H96" s="16">
         <v>6.4100714018076196E-2</v>
       </c>
-      <c r="I96" s="8">
+      <c r="I96" s="19">
         <v>0.18135245414578799</v>
       </c>
-      <c r="J96" s="6" t="s">
+      <c r="J96" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A97" s="18" t="s">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="15">
         <v>-4.53021986907697E-2</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="19">
         <v>0.49230449548439498</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="16">
         <v>-3.2252677266969398E-2</v>
       </c>
-      <c r="E97" s="8">
+      <c r="E97" s="19">
         <v>0.47820909946464701</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="15">
         <v>-3.7213123711658802E-2</v>
       </c>
-      <c r="G97" s="8">
+      <c r="G97" s="19">
         <v>0.59720315011105196</v>
       </c>
-      <c r="H97" s="8">
+      <c r="H97" s="16">
         <v>-2.25749731540285E-2</v>
       </c>
-      <c r="I97" s="8">
+      <c r="I97" s="19">
         <v>0.63922402404830203</v>
       </c>
-      <c r="J97" s="6" t="s">
+      <c r="J97" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A98" s="18" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="15">
         <v>2.1435099908165198E-2</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="19">
         <v>0.74536003013701102</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="16">
         <v>1.14354797293287E-2</v>
       </c>
-      <c r="E98" s="8">
+      <c r="E98" s="19">
         <v>0.800591198766609</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="15">
         <v>0.107873402728124</v>
       </c>
-      <c r="G98" s="8">
+      <c r="G98" s="19">
         <v>0.124597817215505</v>
       </c>
-      <c r="H98" s="8">
+      <c r="H98" s="16">
         <v>7.6097418766526703E-2</v>
       </c>
-      <c r="I98" s="8">
+      <c r="I98" s="19">
         <v>0.11210418641356699</v>
       </c>
-      <c r="J98" s="6" t="s">
+      <c r="J98" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A99" s="18" t="s">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="15">
         <v>-4.4536037186425403E-2</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="19">
         <v>0.49966069004546199</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="16">
         <v>-2.93665602009964E-2</v>
       </c>
-      <c r="E99" s="8">
+      <c r="E99" s="19">
         <v>0.51905424070256301</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="15">
         <v>2.1457565072445402E-2</v>
       </c>
-      <c r="G99" s="8">
+      <c r="G99" s="19">
         <v>0.76065011541003602</v>
       </c>
-      <c r="H99" s="8">
+      <c r="H99" s="16">
         <v>1.2795028763027599E-2</v>
       </c>
-      <c r="I99" s="8">
+      <c r="I99" s="19">
         <v>0.79080155075009895</v>
       </c>
-      <c r="J99" s="6" t="s">
+      <c r="J99" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A100" s="18" t="s">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="15">
         <v>4.3610779014911498E-2</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="19">
         <v>0.50862111733158999</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="16">
         <v>3.43757494229096E-2</v>
       </c>
-      <c r="E100" s="8">
+      <c r="E100" s="19">
         <v>0.469760160240557</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="15">
         <v>3.4919652671721098E-2</v>
       </c>
-      <c r="G100" s="8">
+      <c r="G100" s="19">
         <v>0.62000805416578197</v>
       </c>
-      <c r="H100" s="8">
+      <c r="H100" s="16">
         <v>2.4444717126256E-2</v>
       </c>
-      <c r="I100" s="8">
+      <c r="I100" s="19">
         <v>0.62790300281505596</v>
       </c>
-      <c r="J100" s="6" t="s">
+      <c r="J100" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A101" s="18" t="s">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="15">
         <v>-4.3300634022916798E-2</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="19">
         <v>0.51164325527128396</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="16">
         <v>-3.0299427639339901E-2</v>
       </c>
-      <c r="E101" s="8">
+      <c r="E101" s="19">
         <v>0.50343899073811205</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="15">
         <v>2.6103791470810499E-3</v>
       </c>
-      <c r="G101" s="8">
+      <c r="G101" s="19">
         <v>0.97044144416792799</v>
       </c>
-      <c r="H101" s="8">
+      <c r="H101" s="16">
         <v>-2.9600786123725599E-3</v>
       </c>
-      <c r="I101" s="8">
+      <c r="I101" s="19">
         <v>0.95082621800301803</v>
       </c>
-      <c r="J101" s="6" t="s">
+      <c r="J101" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A102" s="18" t="s">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="15">
         <v>-4.32215551548919E-2</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="19">
         <v>0.51241530854739004</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D102" s="16">
         <v>-2.9347922058961601E-2</v>
       </c>
-      <c r="E102" s="8">
+      <c r="E102" s="19">
         <v>0.51219911627242998</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="15">
         <v>3.1171132519667601E-2</v>
       </c>
-      <c r="G102" s="8">
+      <c r="G102" s="19">
         <v>0.65806618321807897</v>
       </c>
-      <c r="H102" s="8">
+      <c r="H102" s="16">
         <v>2.4101355634165898E-2</v>
       </c>
-      <c r="I102" s="8">
+      <c r="I102" s="19">
         <v>0.61147312498536299</v>
       </c>
-      <c r="J102" s="6" t="s">
+      <c r="J102" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A103" s="18" t="s">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="15">
         <v>-4.1340089596213797E-2</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="19">
         <v>0.53096059764097903</v>
       </c>
-      <c r="D103" s="8">
+      <c r="D103" s="16">
         <v>-2.7095946497905799E-2</v>
       </c>
-      <c r="E103" s="8">
+      <c r="E103" s="19">
         <v>0.54648386240408597</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="15">
         <v>-1.52310761457479E-2</v>
       </c>
-      <c r="G103" s="8">
+      <c r="G103" s="19">
         <v>0.82881699389667296</v>
       </c>
-      <c r="H103" s="8">
+      <c r="H103" s="16">
         <v>2.34462658761188E-3</v>
       </c>
-      <c r="I103" s="8">
+      <c r="I103" s="19">
         <v>0.96070646236589496</v>
       </c>
-      <c r="J103" s="6" t="s">
+      <c r="J103" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A104" s="18" t="s">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="15">
         <v>-4.08459230433008E-2</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="19">
         <v>0.53588700562577596</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D104" s="16">
         <v>-3.0810660628898999E-2</v>
       </c>
-      <c r="E104" s="8">
+      <c r="E104" s="19">
         <v>0.51371071771786003</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="15">
         <v>-7.4876717049991395E-2</v>
       </c>
-      <c r="G104" s="8">
+      <c r="G104" s="19">
         <v>0.28715805223781998</v>
       </c>
-      <c r="H104" s="8">
+      <c r="H104" s="16">
         <v>-5.10554513315696E-2</v>
       </c>
-      <c r="I104" s="8">
+      <c r="I104" s="19">
         <v>0.307606203651205</v>
       </c>
-      <c r="J104" s="6" t="s">
+      <c r="J104" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A105" s="18" t="s">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="15">
         <v>3.9960532103785702E-2</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="19">
         <v>0.54477039014439299</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="16">
         <v>2.7019834288641999E-2</v>
       </c>
-      <c r="E105" s="8">
+      <c r="E105" s="19">
         <v>0.54761368457205695</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="15">
         <v>2.8375999618002402E-2</v>
       </c>
-      <c r="G105" s="8">
+      <c r="G105" s="19">
         <v>0.68703572455679396</v>
       </c>
-      <c r="H105" s="8">
+      <c r="H105" s="16">
         <v>2.00280049574788E-2</v>
       </c>
-      <c r="I105" s="8">
+      <c r="I105" s="19">
         <v>0.67388409636809898</v>
       </c>
-      <c r="J105" s="6" t="s">
+      <c r="J105" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A106" s="18" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="15">
         <v>-3.9360273537225897E-2</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="19">
         <v>0.55083401130197296</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="16">
         <v>-2.66486338111919E-2</v>
       </c>
-      <c r="E106" s="8">
+      <c r="E106" s="19">
         <v>0.56102998068940002</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="15">
         <v>2.8190763696394901E-2</v>
       </c>
-      <c r="G106" s="8">
+      <c r="G106" s="19">
         <v>0.68897236093246805</v>
       </c>
-      <c r="H106" s="8">
+      <c r="H106" s="16">
         <v>1.8479828149585001E-2</v>
       </c>
-      <c r="I106" s="8">
+      <c r="I106" s="19">
         <v>0.70320828209442998</v>
       </c>
-      <c r="J106" s="6" t="s">
+      <c r="J106" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A107" s="18" t="s">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="15">
         <v>-3.9296937446511498E-2</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="19">
         <v>0.55147573117038096</v>
       </c>
-      <c r="D107" s="8">
+      <c r="D107" s="16">
         <v>-2.5944559029646701E-2</v>
       </c>
-      <c r="E107" s="8">
+      <c r="E107" s="19">
         <v>0.57004933568377503</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="15">
         <v>1.40968629380257E-3</v>
       </c>
-      <c r="G107" s="8">
+      <c r="G107" s="19">
         <v>0.98403488815913398</v>
       </c>
-      <c r="H107" s="8">
+      <c r="H107" s="16">
         <v>8.5187781253051199E-3</v>
       </c>
-      <c r="I107" s="8">
+      <c r="I107" s="19">
         <v>0.86033082289024598</v>
       </c>
-      <c r="J107" s="6" t="s">
+      <c r="J107" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A108" s="18" t="s">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="15">
         <v>3.7770800617469701E-2</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="19">
         <v>0.567047919115093</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="16">
         <v>2.7703867018827801E-2</v>
       </c>
-      <c r="E108" s="8">
+      <c r="E108" s="19">
         <v>0.56191192482324903</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="15">
         <v>4.7932219783295198E-2</v>
       </c>
-      <c r="G108" s="8">
+      <c r="G108" s="19">
         <v>0.49600203931859999</v>
       </c>
-      <c r="H108" s="8">
+      <c r="H108" s="16">
         <v>3.5822701067136101E-2</v>
       </c>
-      <c r="I108" s="8">
+      <c r="I108" s="19">
         <v>0.48039844648906799</v>
       </c>
-      <c r="J108" s="6" t="s">
+      <c r="J108" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A109" s="18" t="s">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="15">
         <v>-3.7573734454843098E-2</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="19">
         <v>0.56907387505378704</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="16">
         <v>-2.5439226324285798E-2</v>
       </c>
-      <c r="E109" s="8">
+      <c r="E109" s="19">
         <v>0.57096438101897495</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="15">
         <v>0.105719012289545</v>
       </c>
-      <c r="G109" s="8">
+      <c r="G109" s="19">
         <v>0.13234683330424701</v>
       </c>
-      <c r="H109" s="8">
+      <c r="H109" s="16">
         <v>7.3620487557425701E-2</v>
       </c>
-      <c r="I109" s="8">
+      <c r="I109" s="19">
         <v>0.121656034803606</v>
       </c>
-      <c r="J109" s="6" t="s">
+      <c r="J109" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A110" s="18" t="s">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="15">
         <v>3.6781024154980302E-2</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="19">
         <v>0.57725790628900997</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="16">
         <v>2.6732083494558401E-2</v>
       </c>
-      <c r="E110" s="8">
+      <c r="E110" s="19">
         <v>0.56161476529264998</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="15">
         <v>4.3583356384605199E-2</v>
       </c>
-      <c r="G110" s="8">
+      <c r="G110" s="19">
         <v>0.53594011154186505</v>
       </c>
-      <c r="H110" s="8">
+      <c r="H110" s="16">
         <v>2.8941948719516601E-2</v>
       </c>
-      <c r="I110" s="8">
+      <c r="I110" s="19">
         <v>0.552505977963345</v>
       </c>
-      <c r="J110" s="6" t="s">
+      <c r="J110" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A111" s="18" t="s">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="15">
         <v>2.0942970620024901E-2</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="19">
         <v>0.75101169855234395</v>
       </c>
-      <c r="D111" s="8">
+      <c r="D111" s="16">
         <v>1.4572432237071499E-2</v>
       </c>
-      <c r="E111" s="8">
+      <c r="E111" s="19">
         <v>0.74678626374611401</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111" s="15">
         <v>9.4663645385544504E-2</v>
       </c>
-      <c r="G111" s="8">
+      <c r="G111" s="19">
         <v>0.17804933237716999</v>
       </c>
-      <c r="H111" s="8">
+      <c r="H111" s="16">
         <v>6.8065713042570405E-2</v>
       </c>
-      <c r="I111" s="8">
+      <c r="I111" s="19">
         <v>0.15432649050966901</v>
       </c>
-      <c r="J111" s="6" t="s">
+      <c r="J111" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A112" s="18" t="s">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="15">
         <v>3.5459558834778797E-2</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="19">
         <v>0.59102196485611302</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D112" s="16">
         <v>2.3456099300705101E-2</v>
       </c>
-      <c r="E112" s="8">
+      <c r="E112" s="19">
         <v>0.601251857356496</v>
       </c>
-      <c r="F112" s="7">
+      <c r="F112" s="15">
         <v>-7.5652834903661301E-2</v>
       </c>
-      <c r="G112" s="8">
+      <c r="G112" s="19">
         <v>0.28217737735395698</v>
       </c>
-      <c r="H112" s="8">
+      <c r="H112" s="16">
         <v>-5.1396855560254598E-2</v>
       </c>
-      <c r="I112" s="8">
+      <c r="I112" s="19">
         <v>0.27934044599818197</v>
       </c>
-      <c r="J112" s="6" t="s">
+      <c r="J112" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A113" s="18" t="s">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="15">
         <v>-3.5069124829584103E-2</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113" s="19">
         <v>0.59511713532907795</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D113" s="16">
         <v>-2.37667000789701E-2</v>
       </c>
-      <c r="E113" s="8">
+      <c r="E113" s="19">
         <v>0.59602415453519397</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113" s="15">
         <v>-3.4845879022137399E-2</v>
       </c>
-      <c r="G113" s="8">
+      <c r="G113" s="19">
         <v>0.620747833269094</v>
       </c>
-      <c r="H113" s="8">
+      <c r="H113" s="16">
         <v>-1.84664658203284E-2</v>
       </c>
-      <c r="I113" s="8">
+      <c r="I113" s="19">
         <v>0.69731868225636895</v>
       </c>
-      <c r="J113" s="6" t="s">
+      <c r="J113" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A114" s="18" t="s">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="15">
         <v>3.4313479723382397E-2</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="19">
         <v>0.60307924395660994</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D114" s="16">
         <v>2.43434875786885E-2</v>
       </c>
-      <c r="E114" s="8">
+      <c r="E114" s="19">
         <v>0.59697673668562501</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114" s="15">
         <v>2.0049880442356099E-2</v>
       </c>
-      <c r="G114" s="8">
+      <c r="G114" s="19">
         <v>0.77592110671608805</v>
       </c>
-      <c r="H114" s="8">
+      <c r="H114" s="16">
         <v>1.4119984991783701E-2</v>
       </c>
-      <c r="I114" s="8">
+      <c r="I114" s="19">
         <v>0.772178599255397</v>
       </c>
-      <c r="J114" s="6" t="s">
+      <c r="J114" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A115" s="18" t="s">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="15">
         <v>2.60060348935779E-2</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="19">
         <v>0.69355206489911803</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D115" s="16">
         <v>1.7974447372191199E-2</v>
       </c>
-      <c r="E115" s="8">
+      <c r="E115" s="19">
         <v>0.68931664631532796</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115" s="15">
         <v>9.2717911465966293E-2</v>
       </c>
-      <c r="G115" s="8">
+      <c r="G115" s="19">
         <v>0.187175050334074</v>
       </c>
-      <c r="H115" s="8">
+      <c r="H115" s="16">
         <v>6.1308253831223798E-2</v>
       </c>
-      <c r="I115" s="8">
+      <c r="I115" s="19">
         <v>0.19770057870560301</v>
       </c>
-      <c r="J115" s="6" t="s">
+      <c r="J115" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A116" s="18" t="s">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="15">
         <v>3.3696427181738299E-2</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116" s="19">
         <v>0.60961611682514905</v>
       </c>
-      <c r="D116" s="8">
+      <c r="D116" s="16">
         <v>2.41226332370723E-2</v>
       </c>
-      <c r="E116" s="8">
+      <c r="E116" s="19">
         <v>0.59018470837043002</v>
       </c>
-      <c r="F116" s="7">
+      <c r="F116" s="15">
         <v>6.5426676580038007E-2</v>
       </c>
-      <c r="G116" s="8">
+      <c r="G116" s="19">
         <v>0.35250868151410403</v>
       </c>
-      <c r="H116" s="8">
+      <c r="H116" s="16">
         <v>4.6504263258380897E-2</v>
       </c>
-      <c r="I116" s="8">
+      <c r="I116" s="19">
         <v>0.32707505015029797</v>
       </c>
-      <c r="J116" s="6" t="s">
+      <c r="J116" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A117" s="18" t="s">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="15">
         <v>-3.3664555888418497E-2</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C117" s="19">
         <v>0.60995460015314495</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D117" s="16">
         <v>-2.2377026423837799E-2</v>
       </c>
-      <c r="E117" s="8">
+      <c r="E117" s="19">
         <v>0.62167537836569897</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117" s="15">
         <v>-4.0222703864953198E-2</v>
       </c>
-      <c r="G117" s="8">
+      <c r="G117" s="19">
         <v>0.56786665868171504</v>
       </c>
-      <c r="H117" s="8">
+      <c r="H117" s="16">
         <v>-2.4047723117560899E-2</v>
       </c>
-      <c r="I117" s="8">
+      <c r="I117" s="19">
         <v>0.61675976589754</v>
       </c>
-      <c r="J117" s="6" t="s">
+      <c r="J117" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A118" s="18" t="s">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="15">
         <v>3.3082275597367497E-2</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C118" s="19">
         <v>0.61615313749216505</v>
       </c>
-      <c r="D118" s="8">
+      <c r="D118" s="16">
         <v>2.4625207661119301E-2</v>
       </c>
-      <c r="E118" s="8">
+      <c r="E118" s="19">
         <v>0.58733662950949095</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F118" s="15">
         <v>-6.8131762106497504E-2</v>
       </c>
-      <c r="G118" s="8">
+      <c r="G118" s="19">
         <v>0.33291342036657301</v>
       </c>
-      <c r="H118" s="8">
+      <c r="H118" s="16">
         <v>-4.3446140270733902E-2</v>
       </c>
-      <c r="I118" s="8">
+      <c r="I118" s="19">
         <v>0.36585379312988198</v>
       </c>
-      <c r="J118" s="6" t="s">
+      <c r="J118" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A119" s="18" t="s">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119" s="15">
         <v>-3.2532649178451098E-2</v>
       </c>
-      <c r="C119" s="8">
+      <c r="C119" s="19">
         <v>0.62202913040003205</v>
       </c>
-      <c r="D119" s="8">
+      <c r="D119" s="16">
         <v>-2.36788974790593E-2</v>
       </c>
-      <c r="E119" s="8">
+      <c r="E119" s="19">
         <v>0.62446390525807005</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119" s="15">
         <v>2.5387139492453699E-2</v>
       </c>
-      <c r="G119" s="8">
+      <c r="G119" s="19">
         <v>0.71852494042782</v>
       </c>
-      <c r="H119" s="8">
+      <c r="H119" s="16">
         <v>1.9185763537468401E-2</v>
       </c>
-      <c r="I119" s="8">
+      <c r="I119" s="19">
         <v>0.70934177635045503</v>
       </c>
-      <c r="J119" s="6" t="s">
+      <c r="J119" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A120" s="18" t="s">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="15">
         <v>-3.2145435689629402E-2</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120" s="19">
         <v>0.62618323135858001</v>
       </c>
-      <c r="D120" s="8">
+      <c r="D120" s="16">
         <v>-2.2283718964978001E-2</v>
       </c>
-      <c r="E120" s="8">
+      <c r="E120" s="19">
         <v>0.62230755529053305</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F120" s="15">
         <v>-5.3968473429547498E-2</v>
       </c>
-      <c r="G120" s="8">
+      <c r="G120" s="19">
         <v>0.44329180807673202</v>
       </c>
-      <c r="H120" s="8">
+      <c r="H120" s="16">
         <v>-3.6840375751225202E-2</v>
       </c>
-      <c r="I120" s="8">
+      <c r="I120" s="19">
         <v>0.44213829337330401</v>
       </c>
-      <c r="J120" s="6" t="s">
+      <c r="J120" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A121" s="18" t="s">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121" s="15">
         <v>-3.1970293458825197E-2</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C121" s="19">
         <v>0.62806607918483404</v>
       </c>
-      <c r="D121" s="8">
+      <c r="D121" s="16">
         <v>-2.11044638853118E-2</v>
       </c>
-      <c r="E121" s="8">
+      <c r="E121" s="19">
         <v>0.65351650832138497</v>
       </c>
-      <c r="F121" s="7">
+      <c r="F121" s="15">
         <v>-9.0875648677384097E-2</v>
       </c>
-      <c r="G121" s="8">
+      <c r="G121" s="19">
         <v>0.196127109355164</v>
       </c>
-      <c r="H121" s="8">
+      <c r="H121" s="16">
         <v>-6.0435638629023597E-2</v>
       </c>
-      <c r="I121" s="8">
+      <c r="I121" s="19">
         <v>0.225063167376606</v>
       </c>
-      <c r="J121" s="6" t="s">
+      <c r="J121" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A122" s="18" t="s">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B122" s="15">
         <v>-2.9778711221251801E-2</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C122" s="19">
         <v>0.65182667776523795</v>
       </c>
-      <c r="D122" s="8">
+      <c r="D122" s="16">
         <v>-1.8962508185836099E-2</v>
       </c>
-      <c r="E122" s="8">
+      <c r="E122" s="19">
         <v>0.69149267871076003</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F122" s="15">
         <v>4.9570056214126697E-2</v>
       </c>
-      <c r="G122" s="8">
+      <c r="G122" s="19">
         <v>0.48138016076451101</v>
       </c>
-      <c r="H122" s="8">
+      <c r="H122" s="16">
         <v>3.5643425963757101E-2</v>
       </c>
-      <c r="I122" s="8">
+      <c r="I122" s="19">
         <v>0.48212702179338102</v>
       </c>
-      <c r="J122" s="6" t="s">
+      <c r="J122" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A123" s="18" t="s">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B123" s="7">
+      <c r="B123" s="15">
         <v>4.5346548800054898E-2</v>
       </c>
-      <c r="C123" s="8">
+      <c r="C123" s="19">
         <v>0.49188044794763403</v>
       </c>
-      <c r="D123" s="8">
+      <c r="D123" s="16">
         <v>2.73515523104912E-2</v>
       </c>
-      <c r="E123" s="8">
+      <c r="E123" s="19">
         <v>0.54202170969103203</v>
       </c>
-      <c r="F123" s="7">
+      <c r="F123" s="15">
         <v>-8.6528094527936E-2</v>
       </c>
-      <c r="G123" s="8">
+      <c r="G123" s="19">
         <v>0.21847864373631701</v>
       </c>
-      <c r="H123" s="8">
+      <c r="H123" s="16">
         <v>-5.6232733004545801E-2</v>
       </c>
-      <c r="I123" s="8">
+      <c r="I123" s="19">
         <v>0.23667475443166</v>
       </c>
-      <c r="J123" s="6" t="s">
+      <c r="J123" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A124" s="18" t="s">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B124" s="7">
+      <c r="B124" s="15">
         <v>-2.8247128059484601E-2</v>
       </c>
-      <c r="C124" s="8">
+      <c r="C124" s="19">
         <v>0.66864460450488705</v>
       </c>
-      <c r="D124" s="8">
+      <c r="D124" s="16">
         <v>-1.95157492420607E-2</v>
       </c>
-      <c r="E124" s="8">
+      <c r="E124" s="19">
         <v>0.66728540862955799</v>
       </c>
-      <c r="F124" s="7">
+      <c r="F124" s="15">
         <v>0.111133990822973</v>
       </c>
-      <c r="G124" s="8">
+      <c r="G124" s="19">
         <v>0.11354389833975501</v>
       </c>
-      <c r="H124" s="8">
+      <c r="H124" s="16">
         <v>8.2659429460384098E-2</v>
       </c>
-      <c r="I124" s="8">
+      <c r="I124" s="19">
         <v>8.5594317182892704E-2</v>
       </c>
-      <c r="J124" s="6" t="s">
+      <c r="J124" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A125" s="18" t="s">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B125" s="15">
         <v>8.10323756982494E-3</v>
       </c>
-      <c r="C125" s="8">
+      <c r="C125" s="19">
         <v>0.90229699683355502</v>
       </c>
-      <c r="D125" s="8">
+      <c r="D125" s="16">
         <v>7.1773351527706E-3</v>
       </c>
-      <c r="E125" s="8">
+      <c r="E125" s="19">
         <v>0.87283093532318001</v>
       </c>
-      <c r="F125" s="7">
+      <c r="F125" s="15">
         <v>7.5766682389742906E-2</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G125" s="19">
         <v>0.281451690369244</v>
       </c>
-      <c r="H125" s="8">
+      <c r="H125" s="16">
         <v>4.96219934872442E-2</v>
       </c>
-      <c r="I125" s="8">
+      <c r="I125" s="19">
         <v>0.29568419662088402</v>
       </c>
-      <c r="J125" s="6" t="s">
+      <c r="J125" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A126" s="18" t="s">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126" s="15">
         <v>-6.3577054204152494E-2</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C126" s="19">
         <v>0.334984732563814</v>
       </c>
-      <c r="D126" s="8">
+      <c r="D126" s="16">
         <v>-4.1358263554012502E-2</v>
       </c>
-      <c r="E126" s="8">
+      <c r="E126" s="19">
         <v>0.36561685711640801</v>
       </c>
-      <c r="F126" s="7">
+      <c r="F126" s="15">
         <v>-7.0736920163307904E-2</v>
       </c>
-      <c r="G126" s="8">
+      <c r="G126" s="19">
         <v>0.31471531988032903</v>
       </c>
-      <c r="H126" s="8">
+      <c r="H126" s="16">
         <v>-4.6902898302045998E-2</v>
       </c>
-      <c r="I126" s="8">
+      <c r="I126" s="19">
         <v>0.33307908707428102</v>
       </c>
-      <c r="J126" s="6" t="s">
+      <c r="J126" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A127" s="18" t="s">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B127" s="15">
         <v>2.41936725591211E-2</v>
       </c>
-      <c r="C127" s="8">
+      <c r="C127" s="19">
         <v>0.71393958164063398</v>
       </c>
-      <c r="D127" s="8">
+      <c r="D127" s="16">
         <v>1.9180590001658799E-2</v>
       </c>
-      <c r="E127" s="8">
+      <c r="E127" s="19">
         <v>0.67221514003457195</v>
       </c>
-      <c r="F127" s="7">
+      <c r="F127" s="15">
         <v>-3.9783199921385598E-2</v>
       </c>
-      <c r="G127" s="8">
+      <c r="G127" s="19">
         <v>0.572107846590305</v>
       </c>
-      <c r="H127" s="8">
+      <c r="H127" s="16">
         <v>-2.02790851267429E-2</v>
       </c>
-      <c r="I127" s="8">
+      <c r="I127" s="19">
         <v>0.67276855093983301</v>
       </c>
-      <c r="J127" s="6" t="s">
+      <c r="J127" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A128" s="18" t="s">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128" s="15">
         <v>2.5668822288801001E-2</v>
       </c>
-      <c r="C128" s="8">
+      <c r="C128" s="19">
         <v>0.69732929156808199</v>
       </c>
-      <c r="D128" s="8">
+      <c r="D128" s="16">
         <v>1.5289604803874901E-2</v>
       </c>
-      <c r="E128" s="8">
+      <c r="E128" s="19">
         <v>0.74324858037112296</v>
       </c>
-      <c r="F128" s="7">
+      <c r="F128" s="15">
         <v>-5.62442983470164E-2</v>
       </c>
-      <c r="G128" s="8">
+      <c r="G128" s="19">
         <v>0.42427550081056598</v>
       </c>
-      <c r="H128" s="8">
+      <c r="H128" s="16">
         <v>-4.3849299173189901E-2</v>
       </c>
-      <c r="I128" s="8">
+      <c r="I128" s="19">
         <v>0.37535430067734898</v>
       </c>
-      <c r="J128" s="6" t="s">
+      <c r="J128" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A129" s="18" t="s">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B129" s="15">
         <v>2.83018824177779E-2</v>
       </c>
-      <c r="C129" s="8">
+      <c r="C129" s="19">
         <v>0.66804044103087101</v>
       </c>
-      <c r="D129" s="8">
+      <c r="D129" s="16">
         <v>1.7968790787498499E-2</v>
       </c>
-      <c r="E129" s="8">
+      <c r="E129" s="19">
         <v>0.68873502451632895</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129" s="15">
         <v>-7.1309170290144497E-2</v>
       </c>
-      <c r="G129" s="8">
+      <c r="G129" s="19">
         <v>0.31080655293523002</v>
       </c>
-      <c r="H129" s="8">
+      <c r="H129" s="16">
         <v>-4.4261080002201802E-2</v>
       </c>
-      <c r="I129" s="8">
+      <c r="I129" s="19">
         <v>0.35141451006986901</v>
       </c>
-      <c r="J129" s="6" t="s">
+      <c r="J129" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A130" s="18" t="s">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B130" s="15">
         <v>-2.33498406267733E-2</v>
       </c>
-      <c r="C130" s="8">
+      <c r="C130" s="19">
         <v>0.72350270427363805</v>
       </c>
-      <c r="D130" s="8">
+      <c r="D130" s="16">
         <v>-1.8310846574161901E-2</v>
       </c>
-      <c r="E130" s="8">
+      <c r="E130" s="19">
         <v>0.68194768921399795</v>
       </c>
-      <c r="F130" s="7">
+      <c r="F130" s="15">
         <v>-4.2982619311343603E-2</v>
       </c>
-      <c r="G130" s="8">
+      <c r="G130" s="19">
         <v>0.54158069581148505</v>
       </c>
-      <c r="H130" s="8">
+      <c r="H130" s="16">
         <v>-2.2721798442942899E-2</v>
       </c>
-      <c r="I130" s="8">
+      <c r="I130" s="19">
         <v>0.63108887548816095</v>
       </c>
-      <c r="J130" s="6" t="s">
+      <c r="J130" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A131" s="18" t="s">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B131" s="7">
+      <c r="B131" s="15">
         <v>2.3259230626824001E-2</v>
       </c>
-      <c r="C131" s="8">
+      <c r="C131" s="19">
         <v>0.72453217025880301</v>
       </c>
-      <c r="D131" s="8">
+      <c r="D131" s="16">
         <v>1.8058235030917202E-2</v>
       </c>
-      <c r="E131" s="8">
+      <c r="E131" s="19">
         <v>0.70005664444112303</v>
       </c>
-      <c r="F131" s="7">
+      <c r="F131" s="15">
         <v>-9.1595875651504996E-3</v>
       </c>
-      <c r="G131" s="8">
+      <c r="G131" s="19">
         <v>0.89654750886616696</v>
       </c>
-      <c r="H131" s="8">
+      <c r="H131" s="16">
         <v>2.57725930665227E-4</v>
       </c>
-      <c r="I131" s="8">
+      <c r="I131" s="19">
         <v>0.99585950264128797</v>
       </c>
-      <c r="J131" s="6" t="s">
+      <c r="J131" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A132" s="18" t="s">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B132" s="7">
+      <c r="B132" s="15">
         <v>2.2032586909539499E-2</v>
       </c>
-      <c r="C132" s="8">
+      <c r="C132" s="19">
         <v>0.73851670454345097</v>
       </c>
-      <c r="D132" s="8">
+      <c r="D132" s="16">
         <v>1.5420023054447E-2</v>
       </c>
-      <c r="E132" s="8">
+      <c r="E132" s="19">
         <v>0.73097974342942396</v>
       </c>
-      <c r="F132" s="7">
+      <c r="F132" s="15">
         <v>2.9763746741765998E-4</v>
       </c>
-      <c r="G132" s="8">
+      <c r="G132" s="19">
         <v>0.99662895481886504</v>
       </c>
-      <c r="H132" s="8">
+      <c r="H132" s="16">
         <v>5.1195520730952498E-3</v>
       </c>
-      <c r="I132" s="8">
+      <c r="I132" s="19">
         <v>0.914187485161716</v>
       </c>
-      <c r="J132" s="6" t="s">
+      <c r="J132" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A133" s="18" t="s">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="7">
+      <c r="B133" s="15">
         <v>2.1710113270717601E-2</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="19">
         <v>0.74220764375699499</v>
       </c>
-      <c r="D133" s="8">
+      <c r="D133" s="16">
         <v>1.54699304767578E-2</v>
       </c>
-      <c r="E133" s="8">
+      <c r="E133" s="19">
         <v>0.72973011179606595</v>
       </c>
-      <c r="F133" s="7">
+      <c r="F133" s="15">
         <v>4.4738179156552899E-2</v>
       </c>
-      <c r="G133" s="8">
+      <c r="G133" s="19">
         <v>0.52518009393738097</v>
       </c>
-      <c r="H133" s="8">
+      <c r="H133" s="16">
         <v>3.0902785578896801E-2</v>
       </c>
-      <c r="I133" s="8">
+      <c r="I133" s="19">
         <v>0.51465621775328196</v>
       </c>
-      <c r="J133" s="6" t="s">
+      <c r="J133" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A134" s="18" t="s">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B134" s="7">
+      <c r="B134" s="15">
         <v>2.1210414575516599E-3</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C134" s="19">
         <v>0.97436656313560299</v>
       </c>
-      <c r="D134" s="8">
+      <c r="D134" s="16">
         <v>4.1588224746697802E-4</v>
       </c>
-      <c r="E134" s="8">
+      <c r="E134" s="19">
         <v>0.99304284448584301</v>
       </c>
-      <c r="F134" s="7">
+      <c r="F134" s="15">
         <v>6.5268742579641506E-2</v>
       </c>
-      <c r="G134" s="8">
+      <c r="G134" s="19">
         <v>0.35367468268464403</v>
       </c>
-      <c r="H134" s="8">
+      <c r="H134" s="16">
         <v>4.5368657980746997E-2</v>
       </c>
-      <c r="I134" s="8">
+      <c r="I134" s="19">
         <v>0.36712975251956598</v>
       </c>
-      <c r="J134" s="6" t="s">
+      <c r="J134" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A135" s="18" t="s">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B135" s="7">
+      <c r="B135" s="15">
         <v>3.6308537731947699E-2</v>
       </c>
-      <c r="C135" s="8">
+      <c r="C135" s="19">
         <v>0.58216196145503196</v>
       </c>
-      <c r="D135" s="8">
+      <c r="D135" s="16">
         <v>2.5493742005570901E-2</v>
       </c>
-      <c r="E135" s="8">
+      <c r="E135" s="19">
         <v>0.56766721796864295</v>
       </c>
-      <c r="F135" s="7">
+      <c r="F135" s="15">
         <v>5.6855783064535599E-2</v>
       </c>
-      <c r="G135" s="8">
+      <c r="G135" s="19">
         <v>0.41924793824388901</v>
       </c>
-      <c r="H135" s="8">
+      <c r="H135" s="16">
         <v>3.78016869363208E-2</v>
       </c>
-      <c r="I135" s="8">
+      <c r="I135" s="19">
         <v>0.423559080684413</v>
       </c>
-      <c r="J135" s="6" t="s">
+      <c r="J135" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A136" s="18" t="s">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B136" s="7">
+      <c r="B136" s="15">
         <v>2.66306252717796E-2</v>
       </c>
-      <c r="C136" s="8">
+      <c r="C136" s="19">
         <v>0.68657583243338205</v>
       </c>
-      <c r="D136" s="8">
+      <c r="D136" s="16">
         <v>1.8468947547878201E-2</v>
       </c>
-      <c r="E136" s="8">
+      <c r="E136" s="19">
         <v>0.68064247109853104</v>
       </c>
-      <c r="F136" s="7">
+      <c r="F136" s="15">
         <v>-5.8055828953432503E-2</v>
       </c>
-      <c r="G136" s="8">
+      <c r="G136" s="19">
         <v>0.409483007450688</v>
       </c>
-      <c r="H136" s="8">
+      <c r="H136" s="16">
         <v>-3.7748599605826903E-2</v>
       </c>
-      <c r="I136" s="8">
+      <c r="I136" s="19">
         <v>0.42699641246011899</v>
       </c>
-      <c r="J136" s="6" t="s">
+      <c r="J136" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A137" s="18" t="s">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B137" s="7">
+      <c r="B137" s="15">
         <v>1.53833175176356E-2</v>
       </c>
-      <c r="C137" s="8">
+      <c r="C137" s="19">
         <v>0.815714886819493</v>
       </c>
-      <c r="D137" s="8">
+      <c r="D137" s="16">
         <v>9.7571915223018894E-3</v>
       </c>
-      <c r="E137" s="8">
+      <c r="E137" s="19">
         <v>0.83357457311987404</v>
       </c>
-      <c r="F137" s="7">
+      <c r="F137" s="15">
         <v>5.0998503082508202E-2</v>
       </c>
-      <c r="G137" s="8">
+      <c r="G137" s="19">
         <v>0.46882021241404498</v>
       </c>
-      <c r="H137" s="8">
+      <c r="H137" s="16">
         <v>3.5537044658733502E-2</v>
       </c>
-      <c r="I137" s="8">
+      <c r="I137" s="19">
         <v>0.47071514407124299</v>
       </c>
-      <c r="J137" s="6" t="s">
+      <c r="J137" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A138" s="18" t="s">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B138" s="7">
+      <c r="B138" s="15">
         <v>2.04076830984855E-2</v>
       </c>
-      <c r="C138" s="8">
+      <c r="C138" s="19">
         <v>0.75717409499672905</v>
       </c>
-      <c r="D138" s="8">
+      <c r="D138" s="16">
         <v>1.50952324394457E-2</v>
       </c>
-      <c r="E138" s="8">
+      <c r="E138" s="19">
         <v>0.74512232848016202</v>
       </c>
-      <c r="F138" s="7">
+      <c r="F138" s="15">
         <v>0.15144798774042001</v>
       </c>
-      <c r="G138" s="8">
+      <c r="G138" s="19">
         <v>3.0594589913523301E-2</v>
       </c>
-      <c r="H138" s="8">
+      <c r="H138" s="16">
         <v>0.10811712681758499</v>
       </c>
-      <c r="I138" s="8">
+      <c r="I138" s="19">
         <v>2.8230136839024401E-2</v>
       </c>
-      <c r="J138" s="6" t="s">
+      <c r="J138" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A139" s="18" t="s">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B139" s="15">
         <v>-2.01950210309929E-2</v>
       </c>
-      <c r="C139" s="8">
+      <c r="C139" s="19">
         <v>0.75962661445192103</v>
       </c>
-      <c r="D139" s="8">
+      <c r="D139" s="16">
         <v>-1.38766766246363E-2</v>
       </c>
-      <c r="E139" s="8">
+      <c r="E139" s="19">
         <v>0.75951596763877205</v>
       </c>
-      <c r="F139" s="7">
+      <c r="F139" s="15">
         <v>-5.7829867836636802E-2</v>
       </c>
-      <c r="G139" s="8">
+      <c r="G139" s="19">
         <v>0.41131135057561902</v>
       </c>
-      <c r="H139" s="8">
+      <c r="H139" s="16">
         <v>-3.5136103359594197E-2</v>
       </c>
-      <c r="I139" s="8">
+      <c r="I139" s="19">
         <v>0.464861005110069</v>
       </c>
-      <c r="J139" s="6" t="s">
+      <c r="J139" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A140" s="18" t="s">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B140" s="7">
+      <c r="B140" s="15">
         <v>-2.0154872211151899E-2</v>
       </c>
-      <c r="C140" s="8">
+      <c r="C140" s="19">
         <v>0.76008990004212895</v>
       </c>
-      <c r="D140" s="8">
+      <c r="D140" s="16">
         <v>-1.1938739778772E-2</v>
       </c>
-      <c r="E140" s="8">
+      <c r="E140" s="19">
         <v>0.78967176406491502</v>
       </c>
-      <c r="F140" s="7">
+      <c r="F140" s="15">
         <v>5.1752542650315104E-3</v>
       </c>
-      <c r="G140" s="8">
+      <c r="G140" s="19">
         <v>0.94143712959050496</v>
       </c>
-      <c r="H140" s="8">
+      <c r="H140" s="16">
         <v>6.8578573477544799E-3</v>
       </c>
-      <c r="I140" s="8">
+      <c r="I140" s="19">
         <v>0.88495821818887199</v>
       </c>
-      <c r="J140" s="6" t="s">
+      <c r="J140" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A141" s="18" t="s">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B141" s="7">
+      <c r="B141" s="15">
         <v>-2.01312947831623E-2</v>
       </c>
-      <c r="C141" s="8">
+      <c r="C141" s="19">
         <v>0.76036200475776194</v>
       </c>
-      <c r="D141" s="8">
+      <c r="D141" s="16">
         <v>-1.34198426823977E-2</v>
       </c>
-      <c r="E141" s="8">
+      <c r="E141" s="19">
         <v>0.76616497043731002</v>
       </c>
-      <c r="F141" s="7">
+      <c r="F141" s="15">
         <v>-6.2469026845683199E-3</v>
       </c>
-      <c r="G141" s="8">
+      <c r="G141" s="19">
         <v>0.92933923162433996</v>
       </c>
-      <c r="H141" s="8">
+      <c r="H141" s="16">
         <v>-2.4048677035635999E-3</v>
       </c>
-      <c r="I141" s="8">
+      <c r="I141" s="19">
         <v>0.95987334934819502</v>
       </c>
-      <c r="J141" s="6" t="s">
+      <c r="J141" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A142" s="18" t="s">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B142" s="7">
+      <c r="B142" s="15">
         <v>5.3224769648824E-2</v>
       </c>
-      <c r="C142" s="8">
+      <c r="C142" s="19">
         <v>0.419730536399052</v>
       </c>
-      <c r="D142" s="8">
+      <c r="D142" s="16">
         <v>3.6570923920553701E-2</v>
       </c>
-      <c r="E142" s="8">
+      <c r="E142" s="19">
         <v>0.414770810660677</v>
       </c>
-      <c r="F142" s="7">
+      <c r="F142" s="15">
         <v>-3.7239543106438303E-2</v>
       </c>
-      <c r="G142" s="8">
+      <c r="G142" s="19">
         <v>0.59694266982955502</v>
       </c>
-      <c r="H142" s="8">
+      <c r="H142" s="16">
         <v>-2.3635861786938401E-2</v>
       </c>
-      <c r="I142" s="8">
+      <c r="I142" s="19">
         <v>0.61867616597362696</v>
       </c>
-      <c r="J142" s="6" t="s">
+      <c r="J142" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A143" s="18" t="s">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B143" s="7">
+      <c r="B143" s="15">
         <v>-2.1094900363971301E-2</v>
       </c>
-      <c r="C143" s="8">
+      <c r="C143" s="19">
         <v>0.74926548764860401</v>
       </c>
-      <c r="D143" s="8">
+      <c r="D143" s="16">
         <v>-1.46573628238327E-2</v>
       </c>
-      <c r="E143" s="8">
+      <c r="E143" s="19">
         <v>0.74375924393334003</v>
       </c>
-      <c r="F143" s="7">
+      <c r="F143" s="15">
         <v>-3.9115425243501999E-2</v>
       </c>
-      <c r="G143" s="8">
+      <c r="G143" s="19">
         <v>0.57858027767838005</v>
       </c>
-      <c r="H143" s="8">
+      <c r="H143" s="16">
         <v>-1.8612638372995899E-2</v>
       </c>
-      <c r="I143" s="8">
+      <c r="I143" s="19">
         <v>0.695046006543239</v>
       </c>
-      <c r="J143" s="6" t="s">
+      <c r="J143" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A144" s="18" t="s">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B144" s="7">
+      <c r="B144" s="15">
         <v>1.7544214130387401E-2</v>
       </c>
-      <c r="C144" s="8">
+      <c r="C144" s="19">
         <v>0.79039124534562499</v>
       </c>
-      <c r="D144" s="8">
+      <c r="D144" s="16">
         <v>1.01811329413609E-2</v>
       </c>
-      <c r="E144" s="8">
+      <c r="E144" s="19">
         <v>0.82106796655723802</v>
       </c>
-      <c r="F144" s="7">
+      <c r="F144" s="15">
         <v>3.9769275674874503E-2</v>
       </c>
-      <c r="G144" s="8">
+      <c r="G144" s="19">
         <v>0.57224245856102696</v>
       </c>
-      <c r="H144" s="8">
+      <c r="H144" s="16">
         <v>3.1353017481784103E-2</v>
       </c>
-      <c r="I144" s="8">
+      <c r="I144" s="19">
         <v>0.510557604967804</v>
       </c>
-      <c r="J144" s="6" t="s">
+      <c r="J144" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A145" s="18" t="s">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B145" s="7">
+      <c r="B145" s="15">
         <v>-1.6500470997011501E-2</v>
       </c>
-      <c r="C145" s="8">
+      <c r="C145" s="19">
         <v>0.80259724553406597</v>
       </c>
-      <c r="D145" s="8">
+      <c r="D145" s="16">
         <v>-1.03263681050504E-2</v>
       </c>
-      <c r="E145" s="8">
+      <c r="E145" s="19">
         <v>0.81843879834229005</v>
       </c>
-      <c r="F145" s="7">
+      <c r="F145" s="15">
         <v>2.92777958697393E-2</v>
       </c>
-      <c r="G145" s="8">
+      <c r="G145" s="19">
         <v>0.67763676504869297</v>
       </c>
-      <c r="H145" s="8">
+      <c r="H145" s="16">
         <v>2.3773315299912098E-2</v>
       </c>
-      <c r="I145" s="8">
+      <c r="I145" s="19">
         <v>0.61785453515940603</v>
       </c>
-      <c r="J145" s="6" t="s">
+      <c r="J145" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A146" s="18" t="s">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B146" s="7">
+      <c r="B146" s="15">
         <v>1.5410918891004001E-2</v>
       </c>
-      <c r="C146" s="8">
+      <c r="C146" s="19">
         <v>0.81539015568981599</v>
       </c>
-      <c r="D146" s="8">
+      <c r="D146" s="16">
         <v>1.07433275075442E-2</v>
       </c>
-      <c r="E146" s="8">
+      <c r="E146" s="19">
         <v>0.81453699691026704</v>
       </c>
-      <c r="F146" s="7">
+      <c r="F146" s="15">
         <v>9.7131174730614694E-2</v>
       </c>
-      <c r="G146" s="8">
+      <c r="G146" s="19">
         <v>0.16695450363842099</v>
       </c>
-      <c r="H146" s="8">
+      <c r="H146" s="16">
         <v>6.7629074747814599E-2</v>
       </c>
-      <c r="I146" s="8">
+      <c r="I146" s="19">
         <v>0.163576644518593</v>
       </c>
-      <c r="J146" s="6" t="s">
+      <c r="J146" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A147" s="18" t="s">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B147" s="7">
+      <c r="B147" s="15">
         <v>-1.9230242387833701E-2</v>
       </c>
-      <c r="C147" s="8">
+      <c r="C147" s="19">
         <v>0.77078274382668899</v>
       </c>
-      <c r="D147" s="8">
+      <c r="D147" s="16">
         <v>-1.2468551949164301E-2</v>
       </c>
-      <c r="E147" s="8">
+      <c r="E147" s="19">
         <v>0.78176745833239503</v>
       </c>
-      <c r="F147" s="7">
+      <c r="F147" s="15">
         <v>2.5233285999706499E-2</v>
       </c>
-      <c r="G147" s="8">
+      <c r="G147" s="19">
         <v>0.72015932939690397</v>
       </c>
-      <c r="H147" s="8">
+      <c r="H147" s="16">
         <v>1.8272598058031098E-2</v>
       </c>
-      <c r="I147" s="8">
+      <c r="I147" s="19">
         <v>0.70106255058793798</v>
       </c>
-      <c r="J147" s="6" t="s">
+      <c r="J147" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A148" s="18" t="s">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B148" s="7">
+      <c r="B148" s="15">
         <v>1.45619805268896E-2</v>
       </c>
-      <c r="C148" s="8">
+      <c r="C148" s="19">
         <v>0.82539210095064697</v>
       </c>
-      <c r="D148" s="8">
+      <c r="D148" s="16">
         <v>9.6520826182347006E-3</v>
       </c>
-      <c r="E148" s="8">
+      <c r="E148" s="19">
         <v>0.830295724475415</v>
       </c>
-      <c r="F148" s="7">
+      <c r="F148" s="15">
         <v>4.1677706717957202E-2</v>
       </c>
-      <c r="G148" s="8">
+      <c r="G148" s="19">
         <v>0.55393354546408102</v>
       </c>
-      <c r="H148" s="8">
+      <c r="H148" s="16">
         <v>2.7662984605243201E-2</v>
       </c>
-      <c r="I148" s="8">
+      <c r="I148" s="19">
         <v>0.56190787348420501</v>
       </c>
-      <c r="J148" s="6" t="s">
+      <c r="J148" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A149" s="18" t="s">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B149" s="7">
+      <c r="B149" s="15">
         <v>1.4082963643587401E-2</v>
       </c>
-      <c r="C149" s="8">
+      <c r="C149" s="19">
         <v>0.83104830073143598</v>
       </c>
-      <c r="D149" s="8">
+      <c r="D149" s="16">
         <v>1.1219695751056399E-2</v>
       </c>
-      <c r="E149" s="8">
+      <c r="E149" s="19">
         <v>0.80498149811349096</v>
       </c>
-      <c r="F149" s="7">
+      <c r="F149" s="15">
         <v>3.29713922354474E-2</v>
       </c>
-      <c r="G149" s="8">
+      <c r="G149" s="19">
         <v>0.63967070705198803</v>
       </c>
-      <c r="H149" s="8">
+      <c r="H149" s="16">
         <v>2.96326396629134E-2</v>
       </c>
-      <c r="I149" s="8">
+      <c r="I149" s="19">
         <v>0.53850432905835099</v>
       </c>
-      <c r="J149" s="6" t="s">
+      <c r="J149" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A150" s="18" t="s">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B150" s="7">
+      <c r="B150" s="15">
         <v>-1.3055631901305801E-2</v>
       </c>
-      <c r="C150" s="8">
+      <c r="C150" s="19">
         <v>0.84320796611952498</v>
       </c>
-      <c r="D150" s="8">
+      <c r="D150" s="16">
         <v>-1.06482205976997E-2</v>
       </c>
-      <c r="E150" s="8">
+      <c r="E150" s="19">
         <v>0.81254715519952903</v>
       </c>
-      <c r="F150" s="7">
+      <c r="F150" s="15">
         <v>-8.0901576662562504E-3</v>
       </c>
-      <c r="G150" s="8">
+      <c r="G150" s="19">
         <v>0.90857003500893097</v>
       </c>
-      <c r="H150" s="8">
+      <c r="H150" s="16">
         <v>-2.7820531559512801E-3</v>
       </c>
-      <c r="I150" s="8">
+      <c r="I150" s="19">
         <v>0.95334890173724196</v>
       </c>
-      <c r="J150" s="6" t="s">
+      <c r="J150" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A151" s="18" t="s">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B151" s="7">
+      <c r="B151" s="15">
         <v>6.23115848619745E-3</v>
       </c>
-      <c r="C151" s="8">
+      <c r="C151" s="19">
         <v>0.92479264502686398</v>
       </c>
-      <c r="D151" s="8">
+      <c r="D151" s="16">
         <v>6.6121814907187399E-3</v>
       </c>
-      <c r="E151" s="8">
+      <c r="E151" s="19">
         <v>0.88346763895102498</v>
       </c>
-      <c r="F151" s="7">
+      <c r="F151" s="15">
         <v>1.6934207640325299E-2</v>
       </c>
-      <c r="G151" s="8">
+      <c r="G151" s="19">
         <v>0.81002027989732694</v>
       </c>
-      <c r="H151" s="8">
+      <c r="H151" s="16">
         <v>1.7606213876816001E-2</v>
       </c>
-      <c r="I151" s="8">
+      <c r="I151" s="19">
         <v>0.71242742321366304</v>
       </c>
-      <c r="J151" s="6" t="s">
+      <c r="J151" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A152" s="18" t="s">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B152" s="7">
+      <c r="B152" s="15">
         <v>-1.2803600935490799E-2</v>
       </c>
-      <c r="C152" s="8">
+      <c r="C152" s="19">
         <v>0.84619684364745695</v>
       </c>
-      <c r="D152" s="8">
+      <c r="D152" s="16">
         <v>-1.00950820635681E-2</v>
       </c>
-      <c r="E152" s="8">
+      <c r="E152" s="19">
         <v>0.82412057059851795</v>
       </c>
-      <c r="F152" s="7">
+      <c r="F152" s="15">
         <v>2.5834193927943699E-2</v>
       </c>
-      <c r="G152" s="8">
+      <c r="G152" s="19">
         <v>0.71378314251545005</v>
       </c>
-      <c r="H152" s="8">
+      <c r="H152" s="16">
         <v>1.7846146947598601E-2</v>
       </c>
-      <c r="I152" s="8">
+      <c r="I152" s="19">
         <v>0.71056587544541805</v>
       </c>
-      <c r="J152" s="6" t="s">
+      <c r="J152" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A153" s="18" t="s">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B153" s="15">
         <v>-1.37796719436398E-2</v>
       </c>
-      <c r="C153" s="8">
+      <c r="C153" s="19">
         <v>0.83463406928364503</v>
       </c>
-      <c r="D153" s="8">
+      <c r="D153" s="16">
         <v>-9.8596175791086302E-3</v>
       </c>
-      <c r="E153" s="8">
+      <c r="E153" s="19">
         <v>0.82695811201313396</v>
       </c>
-      <c r="F153" s="7">
+      <c r="F153" s="15">
         <v>2.3748189115851699E-2</v>
       </c>
-      <c r="G153" s="8">
+      <c r="G153" s="19">
         <v>0.73599984706118404</v>
       </c>
-      <c r="H153" s="8">
+      <c r="H153" s="16">
         <v>1.48056550267979E-2</v>
       </c>
-      <c r="I153" s="8">
+      <c r="I153" s="19">
         <v>0.75650050282305703</v>
       </c>
-      <c r="J153" s="6" t="s">
+      <c r="J153" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A154" s="18" t="s">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B154" s="15">
         <v>1.27586438497045E-2</v>
       </c>
-      <c r="C154" s="8">
+      <c r="C154" s="19">
         <v>0.84673022971234202</v>
       </c>
-      <c r="D154" s="8">
+      <c r="D154" s="16">
         <v>8.0570244086837096E-3</v>
       </c>
-      <c r="E154" s="8">
+      <c r="E154" s="19">
         <v>0.85750994668247804</v>
       </c>
-      <c r="F154" s="7">
+      <c r="F154" s="15">
         <v>5.3408339019463201E-2</v>
       </c>
-      <c r="G154" s="8">
+      <c r="G154" s="19">
         <v>0.44804522888609999</v>
       </c>
-      <c r="H154" s="8">
+      <c r="H154" s="16">
         <v>3.7482663010616903E-2</v>
       </c>
-      <c r="I154" s="8">
+      <c r="I154" s="19">
         <v>0.43055135099136599</v>
       </c>
-      <c r="J154" s="6" t="s">
+      <c r="J154" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A155" s="18" t="s">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B155" s="15">
         <v>-1.04336178348111E-2</v>
       </c>
-      <c r="C155" s="8">
+      <c r="C155" s="19">
         <v>0.874404749819361</v>
       </c>
-      <c r="D155" s="8">
+      <c r="D155" s="16">
         <v>-6.8387951397847297E-3</v>
       </c>
-      <c r="E155" s="8">
+      <c r="E155" s="19">
         <v>0.87884002823716201</v>
       </c>
-      <c r="F155" s="7">
+      <c r="F155" s="15">
         <v>-7.8723122775708698E-2</v>
       </c>
-      <c r="G155" s="8">
+      <c r="G155" s="19">
         <v>0.26304636715215501</v>
       </c>
-      <c r="H155" s="8">
+      <c r="H155" s="16">
         <v>-5.0243250192055403E-2</v>
       </c>
-      <c r="I155" s="8">
+      <c r="I155" s="19">
         <v>0.29002710939040699</v>
       </c>
-      <c r="J155" s="6" t="s">
+      <c r="J155" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A156" s="18" t="s">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B156" s="15">
         <v>1.04125649763043E-2</v>
       </c>
-      <c r="C156" s="8">
+      <c r="C156" s="19">
         <v>0.87465609116640597</v>
       </c>
-      <c r="D156" s="8">
+      <c r="D156" s="16">
         <v>1.05913043717723E-2</v>
       </c>
-      <c r="E156" s="8">
+      <c r="E156" s="19">
         <v>0.81322155524258</v>
       </c>
-      <c r="F156" s="7">
+      <c r="F156" s="15">
         <v>9.8453736397372399E-3</v>
       </c>
-      <c r="G156" s="8">
+      <c r="G156" s="19">
         <v>0.88885011846931705</v>
       </c>
-      <c r="H156" s="8">
+      <c r="H156" s="16">
         <v>6.8232246424097297E-3</v>
       </c>
-      <c r="I156" s="8">
+      <c r="I156" s="19">
         <v>0.885755294360969</v>
       </c>
-      <c r="J156" s="6" t="s">
+      <c r="J156" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A157" s="18" t="s">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B157" s="15">
         <v>-8.6379255753675794E-3</v>
       </c>
-      <c r="C157" s="8">
+      <c r="C157" s="19">
         <v>0.89588546043585304</v>
       </c>
-      <c r="D157" s="8">
+      <c r="D157" s="16">
         <v>-3.7664911529559199E-3</v>
       </c>
-      <c r="E157" s="8">
+      <c r="E157" s="19">
         <v>0.93377683826315405</v>
       </c>
-      <c r="F157" s="7">
+      <c r="F157" s="15">
         <v>-3.0348416477753298E-2</v>
       </c>
-      <c r="G157" s="8">
+      <c r="G157" s="19">
         <v>0.66654266061370804</v>
       </c>
-      <c r="H157" s="8">
+      <c r="H157" s="16">
         <v>-2.3187864817193898E-2</v>
       </c>
-      <c r="I157" s="8">
+      <c r="I157" s="19">
         <v>0.62912304766726301</v>
       </c>
-      <c r="J157" s="6" t="s">
+      <c r="J157" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A158" s="18" t="s">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B158" s="7">
+      <c r="B158" s="15">
         <v>1.8754049226727101E-2</v>
       </c>
-      <c r="C158" s="8">
+      <c r="C158" s="19">
         <v>0.77630673292793795</v>
       </c>
-      <c r="D158" s="8">
+      <c r="D158" s="16">
         <v>8.1094860538132498E-3</v>
       </c>
-      <c r="E158" s="8">
+      <c r="E158" s="19">
         <v>0.85801873447612198</v>
       </c>
-      <c r="F158" s="7">
+      <c r="F158" s="15">
         <v>2.6129692766612998E-2</v>
       </c>
-      <c r="G158" s="8">
+      <c r="G158" s="19">
         <v>0.71065485748522195</v>
       </c>
-      <c r="H158" s="8">
+      <c r="H158" s="16">
         <v>1.7347071291875502E-2</v>
       </c>
-      <c r="I158" s="8">
+      <c r="I158" s="19">
         <v>0.71761721825063196</v>
       </c>
-      <c r="J158" s="6" t="s">
+      <c r="J158" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A159" s="18" t="s">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B159" s="7">
+      <c r="B159" s="15">
         <v>1.3253818329952601E-2</v>
       </c>
-      <c r="C159" s="8">
+      <c r="C159" s="19">
         <v>0.84085921249198403</v>
       </c>
-      <c r="D159" s="8">
+      <c r="D159" s="16">
         <v>9.7942096214675093E-3</v>
       </c>
-      <c r="E159" s="8">
+      <c r="E159" s="19">
         <v>0.82766800709115096</v>
       </c>
-      <c r="F159" s="7">
+      <c r="F159" s="15">
         <v>-1.5618162382770201E-2</v>
       </c>
-      <c r="G159" s="8">
+      <c r="G159" s="19">
         <v>0.82453593154195504</v>
       </c>
-      <c r="H159" s="8">
+      <c r="H159" s="16">
         <v>-9.2444934540673804E-3</v>
       </c>
-      <c r="I159" s="8">
+      <c r="I159" s="19">
         <v>0.84616958496683503</v>
       </c>
-      <c r="J159" s="6" t="s">
+      <c r="J159" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A160" s="18" t="s">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B160" s="7">
+      <c r="B160" s="15">
         <v>-5.2751020257959698E-3</v>
       </c>
-      <c r="C160" s="8">
+      <c r="C160" s="19">
         <v>0.93630523398907906</v>
       </c>
-      <c r="D160" s="8">
+      <c r="D160" s="16">
         <v>-3.83572502421916E-3</v>
       </c>
-      <c r="E160" s="8">
+      <c r="E160" s="19">
         <v>0.93183729662577297</v>
       </c>
-      <c r="F160" s="7">
+      <c r="F160" s="15">
         <v>3.5060688195634598E-2</v>
       </c>
-      <c r="G160" s="8">
+      <c r="G160" s="19">
         <v>0.61859485638937395</v>
       </c>
-      <c r="H160" s="8">
+      <c r="H160" s="16">
         <v>2.90897632160429E-2</v>
       </c>
-      <c r="I160" s="8">
+      <c r="I160" s="19">
         <v>0.54009726170260297</v>
       </c>
-      <c r="J160" s="6" t="s">
+      <c r="J160" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A161" s="18" t="s">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B161" s="7">
+      <c r="B161" s="15">
         <v>-5.0448887380670996E-3</v>
       </c>
-      <c r="C161" s="8">
+      <c r="C161" s="19">
         <v>0.93907947287173499</v>
       </c>
-      <c r="D161" s="8">
+      <c r="D161" s="16">
         <v>-5.0608851150976304E-3</v>
       </c>
-      <c r="E161" s="8">
+      <c r="E161" s="19">
         <v>0.90967266852778295</v>
       </c>
-      <c r="F161" s="7">
+      <c r="F161" s="15">
         <v>7.8266693055774605E-2</v>
       </c>
-      <c r="G161" s="8">
+      <c r="G161" s="19">
         <v>0.26583272041362699</v>
       </c>
-      <c r="H161" s="8">
+      <c r="H161" s="16">
         <v>5.4381544830715903E-2</v>
       </c>
-      <c r="I161" s="8">
+      <c r="I161" s="19">
         <v>0.249669710674496</v>
       </c>
-      <c r="J161" s="6" t="s">
+      <c r="J161" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A162" s="18" t="s">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B162" s="7">
+      <c r="B162" s="15">
         <v>2.34256127037282E-3</v>
       </c>
-      <c r="C162" s="8">
+      <c r="C162" s="19">
         <v>0.97169049177259104</v>
       </c>
-      <c r="D162" s="8">
+      <c r="D162" s="16">
         <v>3.2549458474156702E-3</v>
       </c>
-      <c r="E162" s="8">
+      <c r="E162" s="19">
         <v>0.94257459862233595</v>
       </c>
-      <c r="F162" s="7">
+      <c r="F162" s="15">
         <v>5.6527677794590801E-2</v>
       </c>
-      <c r="G162" s="8">
+      <c r="G162" s="19">
         <v>0.42194124835338298</v>
       </c>
-      <c r="H162" s="8">
+      <c r="H162" s="16">
         <v>3.5941075151877798E-2</v>
       </c>
-      <c r="I162" s="8">
+      <c r="I162" s="19">
         <v>0.452770286006349</v>
       </c>
-      <c r="J162" s="6" t="s">
+      <c r="J162" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A163" s="18" t="s">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B163" s="7">
+      <c r="B163" s="15">
         <v>-2.1068918397471399E-2</v>
       </c>
-      <c r="C163" s="8">
+      <c r="C163" s="19">
         <v>0.74956402224725405</v>
       </c>
-      <c r="D163" s="8">
+      <c r="D163" s="16">
         <v>-1.3633458191524599E-2</v>
       </c>
-      <c r="E163" s="8">
+      <c r="E163" s="19">
         <v>0.77272833478946901</v>
       </c>
-      <c r="F163" s="7">
+      <c r="F163" s="15">
         <v>7.1584137077559699E-3</v>
       </c>
-      <c r="G163" s="8">
+      <c r="G163" s="19">
         <v>0.91906176533443495</v>
       </c>
-      <c r="H163" s="8">
+      <c r="H163" s="16">
         <v>5.8229214464999603E-3</v>
       </c>
-      <c r="I163" s="8">
+      <c r="I163" s="19">
         <v>0.90689306438893602</v>
       </c>
-      <c r="J163" s="6" t="s">
+      <c r="J163" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A164" s="18" t="s">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B164" s="7">
+      <c r="B164" s="15">
         <v>-1.93593404799779E-3</v>
       </c>
-      <c r="C164" s="8">
+      <c r="C164" s="19">
         <v>0.97660297538940699</v>
       </c>
-      <c r="D164" s="8">
+      <c r="D164" s="16">
         <v>-2.9826743389250701E-3</v>
       </c>
-      <c r="E164" s="8">
+      <c r="E164" s="19">
         <v>0.948462971179031</v>
       </c>
-      <c r="F164" s="7">
+      <c r="F164" s="15">
         <v>5.9803861222836201E-2</v>
       </c>
-      <c r="G164" s="8">
+      <c r="G164" s="19">
         <v>0.39550184843923097</v>
       </c>
-      <c r="H164" s="8">
+      <c r="H164" s="16">
         <v>4.3055824467563397E-2</v>
       </c>
-      <c r="I164" s="8">
+      <c r="I164" s="19">
         <v>0.37910355914212901</v>
       </c>
-      <c r="J164" s="6" t="s">
+      <c r="J164" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A165" s="18" t="s">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B165" s="7">
+      <c r="B165" s="15">
         <v>-1.7424919993738401E-3</v>
       </c>
-      <c r="C165" s="8">
+      <c r="C165" s="19">
         <v>0.97894027923619698</v>
       </c>
-      <c r="D165" s="8">
+      <c r="D165" s="16">
         <v>-1.93740162199313E-3</v>
       </c>
-      <c r="E165" s="8">
+      <c r="E165" s="19">
         <v>0.96554849038060198</v>
       </c>
-      <c r="F165" s="7">
+      <c r="F165" s="15">
         <v>-4.6817120423478499E-2</v>
       </c>
-      <c r="G165" s="8">
+      <c r="G165" s="19">
         <v>0.506090118610658</v>
       </c>
-      <c r="H165" s="8">
+      <c r="H165" s="16">
         <v>-2.8767006886916201E-2</v>
       </c>
-      <c r="I165" s="8">
+      <c r="I165" s="19">
         <v>0.54482348516480705</v>
       </c>
-      <c r="J165" s="6" t="s">
+      <c r="J165" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A166" s="18" t="s">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B166" s="7">
+      <c r="B166" s="15">
         <v>1.01413440818233E-3</v>
       </c>
-      <c r="C166" s="8">
+      <c r="C166" s="19">
         <v>0.98774225825763695</v>
       </c>
-      <c r="D166" s="8">
+      <c r="D166" s="16">
         <v>-3.4263526585811698E-4</v>
       </c>
-      <c r="E166" s="8">
+      <c r="E166" s="19">
         <v>0.99391790656238399</v>
       </c>
-      <c r="F166" s="7">
+      <c r="F166" s="15">
         <v>-1.7750336070498E-3</v>
       </c>
-      <c r="G166" s="8">
+      <c r="G166" s="19">
         <v>0.97989800199922905</v>
       </c>
-      <c r="H166" s="8">
+      <c r="H166" s="16">
         <v>4.24879894168694E-3</v>
       </c>
-      <c r="I166" s="8">
+      <c r="I166" s="19">
         <v>0.928847669430935</v>
       </c>
-      <c r="J166" s="6" t="s">
+      <c r="J166" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A167" s="18" t="s">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B167" s="7">
+      <c r="B167" s="15">
         <v>-7.7631109306427798E-4</v>
       </c>
-      <c r="C167" s="8">
+      <c r="C167" s="19">
         <v>0.99061665319258496</v>
       </c>
-      <c r="D167" s="8">
+      <c r="D167" s="16">
         <v>-1.4905788003460299E-3</v>
       </c>
-      <c r="E167" s="8">
+      <c r="E167" s="19">
         <v>0.973641357112626</v>
       </c>
-      <c r="F167" s="7">
+      <c r="F167" s="15">
         <v>3.0439567314118701E-2</v>
       </c>
-      <c r="G167" s="8">
+      <c r="G167" s="19">
         <v>0.66560142045166004</v>
       </c>
-      <c r="H167" s="8">
+      <c r="H167" s="16">
         <v>2.3119050566229801E-2</v>
       </c>
-      <c r="I167" s="8">
+      <c r="I167" s="19">
         <v>0.62866120999017505</v>
       </c>
-      <c r="J167" s="6" t="s">
+      <c r="J167" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A168" s="18" t="s">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B168" s="7">
+      <c r="B168" s="15">
         <v>-2.3311019783350099E-4</v>
       </c>
-      <c r="C168" s="8">
+      <c r="C168" s="19">
         <v>0.99718231592190099</v>
       </c>
-      <c r="D168" s="8">
+      <c r="D168" s="16">
         <v>-1.18696079526572E-3</v>
       </c>
-      <c r="E168" s="8">
+      <c r="E168" s="19">
         <v>0.97904014732100897</v>
       </c>
-      <c r="F168" s="7">
+      <c r="F168" s="15">
         <v>9.6107250304617795E-2</v>
       </c>
-      <c r="G168" s="8">
+      <c r="G168" s="19">
         <v>0.171494123767156</v>
       </c>
-      <c r="H168" s="8">
+      <c r="H168" s="16">
         <v>6.3308145772238894E-2</v>
       </c>
-      <c r="I168" s="8">
+      <c r="I168" s="19">
         <v>0.18589271071341101</v>
       </c>
-      <c r="J168" s="6" t="s">
+      <c r="J168" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A169" s="19" t="s">
+    <row r="169" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B169" s="20">
+      <c r="B169" s="17">
         <v>6.6931486870490294E-5</v>
       </c>
-      <c r="C169" s="11">
+      <c r="C169" s="20">
         <v>0.99919097429474701</v>
       </c>
-      <c r="D169" s="11">
+      <c r="D169" s="18">
         <v>-2.7369174350094102E-3</v>
       </c>
-      <c r="E169" s="11">
+      <c r="E169" s="20">
         <v>0.95197851558205704</v>
       </c>
-      <c r="F169" s="10">
+      <c r="F169" s="17">
         <v>7.2705821739660101E-2</v>
       </c>
-      <c r="G169" s="11">
+      <c r="G169" s="20">
         <v>0.30140075703556801</v>
       </c>
-      <c r="H169" s="11">
+      <c r="H169" s="18">
         <v>5.0659696852480202E-2</v>
       </c>
-      <c r="I169" s="11">
+      <c r="I169" s="20">
         <v>0.29212390424090101</v>
       </c>
-      <c r="J169" s="12" t="s">
+      <c r="J169" s="4" t="s">
         <v>178</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:J169">
-    <sortState ref="B13:J163">
+  <autoFilter ref="B3:J169" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B13:J163">
       <sortCondition ref="I3:I169"/>
     </sortState>
   </autoFilter>
   <mergeCells count="7">
+    <mergeCell ref="A1:A3"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
